--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F153B583-2A67-4644-AAF8-C25FDF056E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68358FDC-2775-4CD1-B8D4-5BA016B0FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,18 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HP </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ATK </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -117,13 +116,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,35 +413,35 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -445,62 +450,63 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>30</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.2</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>120</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.9</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68358FDC-2775-4CD1-B8D4-5BA016B0FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6672086E-A563-4E32-9F36-77DBCD10EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId2"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId3"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,4 +516,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6672086E-A563-4E32-9F36-77DBCD10EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5A74E-BEE6-4545-9EF5-6F8CBBA6FDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5A74E-BEE6-4545-9EF5-6F8CBBA6FDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF853AA7-9E75-4087-B7A7-AA94104A0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF853AA7-9E75-4087-B7A7-AA94104A0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E9423-AAD8-42CE-8736-4EF95F536F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
     <sheet name="DestinyData" sheetId="2" r:id="rId2"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId3"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId4"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId3"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId4"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -560,6 +561,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -600,7 +642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E9423-AAD8-42CE-8736-4EF95F536F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC824111-96CD-4139-B11A-9B6C1D87FE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,26 @@
   </si>
   <si>
     <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegativeDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +437,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,37 +541,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC824111-96CD-4139-B11A-9B6C1D87FE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D51D11-FED2-4F26-9E27-C727C51C31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
     <sheet name="DestinyData" sheetId="2" r:id="rId2"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId3"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId4"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId5"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId3"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId4"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId5"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>NegativeDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPositive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +450,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,6 +626,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J26:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -653,7 +719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -694,7 +760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D51D11-FED2-4F26-9E27-C727C51C31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8606390-7999-4018-B70B-AA0275585A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ActiveItemData" sheetId="5" r:id="rId4"/>
     <sheet name="EnhanceData" sheetId="3" r:id="rId5"/>
     <sheet name="ItemData" sheetId="4" r:id="rId6"/>
+    <sheet name="Enums" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -557,7 +558,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
@@ -765,7 +766,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,4 +800,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8606390-7999-4018-B70B-AA0275585A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACF94B-B4D6-40F8-8F43-E45A281271AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId2"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId3"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId4"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId5"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId6"/>
-    <sheet name="Enums" sheetId="7" r:id="rId7"/>
+    <sheet name="Enums" sheetId="7" r:id="rId1"/>
+    <sheet name="EnemyData" sheetId="1" r:id="rId2"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId3"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId4"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId5"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId6"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="EnumGroup">Enums!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +106,16 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>EnumGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,11 +460,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,12 +615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="Q22" sqref="P22:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,12 +688,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J26:J27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -720,7 +782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -761,12 +823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,20 +862,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACF94B-B4D6-40F8-8F43-E45A281271AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDE3A7-BFAC-4A2D-88E0-4D4E0E0669BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A3:D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDE3A7-BFAC-4A2D-88E0-4D4E0E0669BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B2B89-F449-4A7E-A246-2E2F8E91F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Enums" sheetId="7" r:id="rId1"/>
-    <sheet name="EnemyData" sheetId="1" r:id="rId2"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId3"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId4"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId5"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId6"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId7"/>
+    <sheet name="Table_role" sheetId="8" r:id="rId1"/>
+    <sheet name="Enums" sheetId="7" r:id="rId2"/>
+    <sheet name="EnemyData" sheetId="1" r:id="rId3"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId7"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -460,10 +461,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -508,12 +523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,7 +630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -688,7 +703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -741,7 +756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -782,7 +797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -823,7 +838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B2B89-F449-4A7E-A246-2E2F8E91F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF3D3E-012C-43C4-A432-896F3A89F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>운명1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,13 +110,52 @@
   <si>
     <t>EnumGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaseRange</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>StaminaRegen</t>
+  </si>
+  <si>
+    <t>AttackPower</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>JumpPower</t>
+  </si>
+  <si>
+    <t>CriticalChance</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>PatrolRange</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +178,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF57A64A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,11 +220,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -176,11 +247,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,9 +548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -482,27 +568,27 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,103 +611,294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>120</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -635,31 +912,31 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="P22:Q22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -673,28 +950,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -711,20 +988,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -732,20 +1009,20 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -764,29 +1041,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -805,29 +1082,29 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,29 +1123,29 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>3</v>
       </c>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D51D11-FED2-4F26-9E27-C727C51C31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E962E-C1E4-4E63-98E1-742824E1E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId2"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId3"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId4"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId5"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId6"/>
+    <sheet name="PlayerData" sheetId="7" r:id="rId2"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId3"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId4"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId5"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId6"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,40 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRegen</t>
+  </si>
+  <si>
+    <t>AttackPower</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>JumpPower</t>
+  </si>
+  <si>
+    <t>CriticalChance</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -133,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -167,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -450,7 +492,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,6 +595,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87454A56-B4F1-4C48-BCE3-953CFA627B4D}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -625,11 +792,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
@@ -678,7 +845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -719,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -760,7 +927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CF3D3E-012C-43C4-A432-896F3A89F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E35914-7CF9-4F77-B070-04CDB46F1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
     <sheet name="Enums" sheetId="7" r:id="rId2"/>
     <sheet name="EnemyData" sheetId="1" r:id="rId3"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId7"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId8"/>
+    <sheet name="PlayerData" sheetId="9" r:id="rId4"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId5"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId6"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId7"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId8"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,13 +150,16 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +201,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +229,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,10 +266,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,8 +302,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -908,6 +948,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9901E6-4756-4603-A5D8-CEA06AEFBA95}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="12" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -980,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1033,7 +1197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1074,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1115,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1153,5 +1317,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E35914-7CF9-4F77-B070-04CDB46F1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB182F5-B540-49E0-8411-130A53DE06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,14 +152,15 @@
     <t>float</t>
   </si>
   <si>
-    <t>HP</t>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,24 +202,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,16 +214,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -266,16 +241,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -302,12 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="보통" xfId="2" builtinId="28"/>
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,7 +619,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -949,10 +914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9901E6-4756-4603-A5D8-CEA06AEFBA95}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -960,110 +925,168 @@
     <col min="1" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C3" s="9">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
+      <c r="L3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="7">
         <v>1.5</v>
       </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB182F5-B540-49E0-8411-130A53DE06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9E200-8BB9-49D6-BA9F-9FD4572C5502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
     <sheet name="Enums" sheetId="7" r:id="rId2"/>
-    <sheet name="EnemyData" sheetId="1" r:id="rId3"/>
-    <sheet name="PlayerData" sheetId="9" r:id="rId4"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId5"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId6"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId7"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId8"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId9"/>
+    <sheet name="UnitData" sheetId="1" r:id="rId3"/>
+    <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
+    <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId7"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,10 +615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="A1:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -723,58 +722,58 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>25</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="7">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="M3" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -818,53 +817,97 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="N6" s="4"/>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="N7" s="4"/>
@@ -897,13 +940,16 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="14:14">
-      <c r="N17" s="3"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="14:14">
-      <c r="N18" s="4"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -913,188 +959,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9901E6-4756-4603-A5D8-CEA06AEFBA95}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="12" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100</v>
-      </c>
-      <c r="D3" s="9">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1167,7 +1031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1220,7 +1084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1261,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1302,7 +1166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9E200-8BB9-49D6-BA9F-9FD4572C5502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF9D4F6-2148-43D7-8CA1-4BB5CD9B7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
     <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
     <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId7"/>
+    <sheet name="ItemSkillData" sheetId="9" r:id="rId7"/>
     <sheet name="ItemData" sheetId="4" r:id="rId8"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="97">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isPositive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,34 +117,564 @@
     <t>AttackPower</t>
   </si>
   <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>JumpPower</t>
+  </si>
+  <si>
+    <t>CriticalChance</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>PatrolRange</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEffectDataID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegativeEffectDataID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsecription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitData</t>
+  </si>
+  <si>
+    <t>유닛의 인덱스 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 스테미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 스테미나 회복률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>JumpPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CriticalChance</t>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-  </si>
-  <si>
-    <t>PatrolRange</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 점프력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 크리티컬 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 크리티컬 배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type//적용 방식에 대해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 인덱스 규칙</t>
+  </si>
+  <si>
+    <t>idx_range</t>
+  </si>
+  <si>
+    <t>스테이지.</t>
+  </si>
+  <si>
+    <t>1000-1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestinyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-2999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestinyEffectData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">효과 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000-3999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveItemData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액티브 아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnhanceData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 0등급 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 1등급 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000-4099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0등급 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등급 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000-5099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100-5199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200-5299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100-4199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200-4299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 추적범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 탐색범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 2등급 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2등급 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +724,59 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nanum Gothic Coding"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nanum Gothic Coding"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nanum Gothic Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +785,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -239,11 +825,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -257,18 +925,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,14 +1256,1457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="G20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="5">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5">
+        <v>13</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="38" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="5">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="56" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B56" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="G56" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B60" s="5">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="5">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="5">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5">
+        <v>9</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5">
+        <v>10</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5">
+        <v>12</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5">
+        <v>13</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="74" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B74" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="G74" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" s="22"/>
+    </row>
+    <row r="75" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B75" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B78" s="5">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="5">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="5">
+        <v>4</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="5">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="5">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="5">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="5">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="5">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="5">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="5">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="5">
+        <v>12</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="5">
+        <v>13</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="92" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B92" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="G92" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" s="22"/>
+    </row>
+    <row r="93" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B93" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="5">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="5">
+        <v>3</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="5">
+        <v>4</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="5">
+        <v>5</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="5">
+        <v>6</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="5">
+        <v>7</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="5">
+        <v>8</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="5">
+        <v>9</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="5">
+        <v>10</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="5">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="5">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="5">
+        <v>13</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="G92:H92"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -568,9 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -580,16 +2727,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -617,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -628,284 +2775,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7">
+      <c r="O3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7">
-        <v>100</v>
-      </c>
-      <c r="D3" s="7">
-        <v>100</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="I3" s="7">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="9">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -960,20 +3107,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -986,8 +3134,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +3154,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1009,7 +3169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1017,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1033,26 +3193,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1060,20 +3248,35 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1086,35 +3289,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1126,41 +3341,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D306117D-D570-4C00-8913-9338670E0692}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1168,35 +3357,71 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1206,4 +3431,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF9D4F6-2148-43D7-8CA1-4BB5CD9B7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B56EB5-BBD9-45B5-BF98-DEBE4D56A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
     <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
     <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
-    <sheet name="ItemSkillData" sheetId="9" r:id="rId7"/>
+    <sheet name="ActiveItemEffectData" sheetId="10" r:id="rId7"/>
     <sheet name="ItemData" sheetId="4" r:id="rId8"/>
     <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PositiveDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NegativeDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ConditionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,22 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlayerBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EConditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -267,17 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type//적용 방식에 대해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 인덱스 규칙</t>
-  </si>
-  <si>
     <t>idx_range</t>
-  </si>
-  <si>
-    <t>스테이지.</t>
   </si>
   <si>
     <t>1000-1999</t>
@@ -677,12 +639,397 @@
     <t>2등급 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유닛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffectedTarget</t>
+  </si>
+  <si>
+    <t>AffectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 에게 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 드롭 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 드롭 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>xp</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>old</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>EffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍정 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부정 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500-3999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000-3499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>안흔함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>CostType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>EffectPrefab</t>
+  </si>
+  <si>
+    <t>AoE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 화살 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 @감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 공격력 @감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,8 +1122,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Nanum Gothic Coding"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,8 +1165,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -907,11 +1276,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -958,9 +1393,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -973,11 +1405,46 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1256,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
-  <dimension ref="B1:H107"/>
+  <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1272,35 +1739,35 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="G2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="22"/>
+      <c r="B2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1">
@@ -1311,33 +1778,37 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="5">
@@ -1347,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1358,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -1372,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -1386,10 +1857,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -1400,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1414,10 +1885,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -1428,10 +1899,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -1442,10 +1913,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -1456,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
@@ -1470,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -1484,10 +1955,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
@@ -1498,163 +1969,149 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="5">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5">
         <v>14</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B22" s="5">
+      <c r="C20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B25" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="G25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="5">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>6</v>
@@ -1662,13 +2119,13 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>6</v>
@@ -1676,13 +2133,13 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -1690,13 +2147,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -1704,13 +2161,13 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>6</v>
@@ -1718,176 +2175,180 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="5">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="5">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B38" s="20" t="s">
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="5">
+    </row>
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="5">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="5">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="5">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="5">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="5">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>6</v>
+      <c r="G46" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>6</v>
@@ -1895,13 +2356,13 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>6</v>
@@ -1909,13 +2370,13 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
@@ -1923,13 +2384,13 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>6</v>
@@ -1937,13 +2398,13 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>6</v>
@@ -1951,200 +2412,200 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E52" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="5">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5">
+        <v>12</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5">
         <v>13</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="56" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B56" s="20" t="s">
+      <c r="C58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B61" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="G61" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="G56" s="21" t="s">
+    </row>
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="12" t="s">
+    </row>
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B65" s="5">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B58" s="5">
-        <v>0</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="17" t="s">
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B60" s="5">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="5">
-        <v>3</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="5">
-        <v>4</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="5">
-        <v>5</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="5">
-        <v>6</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="5">
-        <v>7</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>6</v>
@@ -2152,13 +2613,13 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>6</v>
@@ -2166,13 +2627,13 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
@@ -2180,13 +2641,13 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
@@ -2194,200 +2655,200 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="5">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="5">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5">
+        <v>10</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="5">
+        <v>12</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="5">
         <v>13</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="74" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B74" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="G74" s="21" t="s">
+      <c r="C76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B79" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="36"/>
+      <c r="G79" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H74" s="22"/>
-    </row>
-    <row r="75" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B75" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="12" t="s">
+    </row>
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B83" s="5">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="19" t="s">
+      <c r="E83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" s="18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B78" s="5">
-        <v>2</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="5">
-        <v>3</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="5">
-        <v>4</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="5">
-        <v>5</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="5">
-        <v>6</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="5">
-        <v>7</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>6</v>
@@ -2395,13 +2856,13 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
@@ -2409,13 +2870,13 @@
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
@@ -2423,13 +2884,13 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
@@ -2437,275 +2898,584 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="5">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="5">
+        <v>9</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="5">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="5">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="5">
+        <v>12</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="5">
         <v>13</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="92" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B92" s="20" t="s">
+      <c r="C94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B97" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36"/>
+      <c r="G97" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B98" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="G92" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H92" s="22"/>
-    </row>
-    <row r="93" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B93" s="12" t="s">
+    </row>
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B101" s="5">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="5">
+        <v>3</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="5">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="12" t="s">
+      <c r="D103" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="5">
+        <v>5</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="5">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="5">
+        <v>7</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="5">
+        <v>8</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="5">
+        <v>9</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="5">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="5">
+        <v>11</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="5">
+        <v>12</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="5">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B115" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="G115" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B116" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="5">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E119" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="5">
+        <v>3</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="E120" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="5">
         <v>4</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="C121" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="5">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="5">
+        <v>6</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="5">
-        <v>1</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="D123" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="5">
+        <v>7</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="5">
+        <v>8</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="5">
+        <v>9</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="5">
+        <v>10</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="5">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="5">
-        <v>3</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="5">
-        <v>4</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="5">
-        <v>5</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="5">
-        <v>6</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="5">
-        <v>7</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="5">
-        <v>8</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="5">
-        <v>9</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="E127" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="5">
+        <v>11</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="5">
-        <v>10</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="5">
-        <v>11</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="5">
+      <c r="E128" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="5">
         <v>12</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="5">
+      <c r="C129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="5">
         <v>13</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5" t="s">
+      <c r="C130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B79:E79"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="G92:H92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,28 +3485,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2751,6 +3524,202 @@
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11">
+        <v>303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14">
+        <v>402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15">
+        <v>501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16">
+        <v>502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2762,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2774,7 +3743,7 @@
     <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2785,43 +3754,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2832,48 +3807,54 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>6</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5">
         <v>100</v>
@@ -2914,10 +3895,16 @@
       <c r="O3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -2961,10 +3948,16 @@
       <c r="O4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -3008,10 +4001,16 @@
       <c r="O5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="7">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -3055,35 +4054,41 @@
       <c r="O6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="14:14">
@@ -3107,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3121,7 +4126,7 @@
     <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3129,19 +4134,13 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3149,40 +4148,52 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4">
+        <v>3001</v>
+      </c>
+      <c r="D4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +4204,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3206,41 +4217,35 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3248,37 +4253,88 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <v>-10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>3001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>201</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3289,26 +4345,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3316,23 +4383,38 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3">
+        <v>301</v>
+      </c>
+      <c r="D3">
+        <v>5001</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3341,15 +4423,167 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D306117D-D570-4C00-8913-9338670E0692}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="29">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="28">
+        <v>501</v>
+      </c>
+      <c r="D3" s="29">
+        <v>50</v>
+      </c>
+      <c r="E3" s="29">
+        <v>3</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="28">
+        <v>402</v>
+      </c>
+      <c r="I3" s="28">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="29">
+        <v>5001</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="28">
+        <v>501</v>
+      </c>
+      <c r="D4" s="29">
+        <v>60</v>
+      </c>
+      <c r="E4" s="29">
+        <v>3</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>6</v>
+      </c>
+      <c r="H4" s="28">
+        <v>402</v>
+      </c>
+      <c r="I4" s="28">
+        <v>12</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3359,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3369,6 +4603,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3376,19 +4611,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3399,32 +4634,60 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3438,14 +4701,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3453,16 +4717,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3473,32 +4737,73 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>7000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="공격력이{@}증가한다." xr:uid="{340CE3E5-290A-49A3-B113-2CF0962E2A2F}"/>
+    <hyperlink ref="E4" r:id="rId2" display="공격력이{@}증가한다." xr:uid="{7FBD8B46-B62B-423E-B6D6-ADC3B1CE2E19}"/>
+    <hyperlink ref="E5" r:id="rId3" display="공격력이{@}증가한다." xr:uid="{CACB4FB8-D69D-4A16-9723-B36003EA1FFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B56EB5-BBD9-45B5-BF98-DEBE4D56A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C4757-A08E-4F0C-A451-14E44FC5402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="165">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,10 @@
   </si>
   <si>
     <t>적군 공격력 @감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4112,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4196,6 +4200,20 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>3002</v>
+      </c>
+      <c r="D6">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4204,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4335,6 +4353,29 @@
       </c>
       <c r="G5" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C4757-A08E-4F0C-A451-14E44FC5402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F280653-9088-4071-B795-EA651419A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="164">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,29 +763,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>xp</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>G</t>
     </r>
     <r>
@@ -936,96 +913,97 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>AoE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 화살 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 @감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 공격력 @감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EffectPrefab</t>
-  </si>
-  <si>
-    <t>AoE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-  </si>
-  <si>
-    <t>Projectile</t>
-  </si>
-  <si>
-    <t>투사체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화살 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 화살 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affectedTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 @증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력이 @증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 공격력 @증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 공격력 @감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군 공격력 @감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운명4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>97</v>
@@ -2318,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>70</v>
@@ -2338,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>70</v>
@@ -3492,7 +3470,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3588,30 +3566,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3622,57 +3600,57 @@
         <v>301</v>
       </c>
       <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
         <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
         <v>122</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>401</v>
@@ -3681,12 +3659,12 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>402</v>
@@ -3695,35 +3673,35 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>501</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3735,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="P1" sqref="P1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3747,7 +3725,7 @@
     <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>46</v>
@@ -3773,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>22</v>
@@ -3796,11 +3774,8 @@
       <c r="P1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3849,11 +3824,8 @@
       <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -3902,11 +3874,8 @@
       <c r="P3" s="24">
         <v>0</v>
       </c>
-      <c r="Q3" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7">
         <v>1000</v>
       </c>
@@ -3955,11 +3924,8 @@
       <c r="P4" s="24">
         <v>1</v>
       </c>
-      <c r="Q4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="7">
         <v>1001</v>
       </c>
@@ -4008,11 +3974,8 @@
       <c r="P5" s="24">
         <v>2</v>
       </c>
-      <c r="Q5" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
@@ -4061,38 +4024,35 @@
       <c r="P6" s="24">
         <v>3</v>
       </c>
-      <c r="Q6" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:16">
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:16">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:16">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:16">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:16">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:16">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:16">
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="14:14">
@@ -4118,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4205,7 +4165,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>3002</v>
@@ -4224,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4248,16 +4208,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
         <v>31</v>
@@ -4271,7 +4231,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
@@ -4291,7 +4251,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>201</v>
@@ -4300,13 +4260,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>-10</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4314,7 +4274,7 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>201</v>
@@ -4323,13 +4283,13 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4337,7 +4297,7 @@
         <v>3500</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>202</v>
@@ -4352,7 +4312,7 @@
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4360,7 +4320,7 @@
         <v>3002</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -4369,13 +4329,13 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4349,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4407,13 +4367,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4438,7 +4398,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4447,7 +4407,7 @@
         <v>5001</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4468,7 +4428,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4485,34 +4445,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>133</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -4527,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4542,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>6</v>
@@ -4559,7 +4519,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4584,7 +4544,7 @@
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4593,7 +4553,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="28">
         <v>501</v>
@@ -4618,7 +4578,7 @@
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4635,7 +4595,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4661,7 +4621,7 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>31</v>
@@ -4692,19 +4652,19 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4712,19 +4672,19 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4742,7 +4702,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4764,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -4792,7 +4752,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -4801,7 +4761,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4809,7 +4769,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -4818,7 +4778,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4826,7 +4786,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -4835,7 +4795,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F280653-9088-4071-B795-EA651419A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1399AB3-746E-4704-8507-96C44724AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -3715,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3857,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5">
         <v>0.15</v>
@@ -4184,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1399AB3-746E-4704-8507-96C44724AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3A954-87E0-4BF4-9031-5F50D692415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1424,6 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -1707,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
   <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -3470,7 +3471,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3715,7 +3716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4349,7 +4350,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4427,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4595,7 +4596,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4702,7 +4703,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4760,7 +4761,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="37" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4777,7 +4778,7 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="37" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4794,17 +4795,12 @@
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="37" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="공격력이{@}증가한다." xr:uid="{340CE3E5-290A-49A3-B113-2CF0962E2A2F}"/>
-    <hyperlink ref="E4" r:id="rId2" display="공격력이{@}증가한다." xr:uid="{7FBD8B46-B62B-423E-B6D6-ADC3B1CE2E19}"/>
-    <hyperlink ref="E5" r:id="rId3" display="공격력이{@}증가한다." xr:uid="{CACB4FB8-D69D-4A16-9723-B36003EA1FFB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3A954-87E0-4BF4-9031-5F50D692415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13E882-E715-4100-B278-DCE5A8CEF6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ActiveItemEffectData" sheetId="10" r:id="rId7"/>
     <sheet name="ItemData" sheetId="4" r:id="rId8"/>
     <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
+    <sheet name="StageData" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="164">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1328,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1424,7 +1425,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F661DDA-2C94-4E1F-800F-48DD89B553FA}">
   <dimension ref="B1:H130"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3463,6 +3463,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B22FD-4CE7-41F7-993E-184D1CC6448B}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>8002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4186,7 +4227,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4428,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -4703,7 +4744,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4761,7 +4802,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4778,7 +4819,7 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4795,7 +4836,7 @@
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3A954-87E0-4BF4-9031-5F50D692415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92871F-5329-4877-B2DF-ACBDF5086E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1480" windowWidth="27860" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="167">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,6 +1004,17 @@
   </si>
   <si>
     <t>EffectPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>Sprite/ShieldIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/SwordIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1424,7 +1435,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -1712,16 +1722,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
       <c r="B2" s="32" t="s">
         <v>38</v>
       </c>
@@ -1733,7 +1743,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2017,8 +2027,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
       <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
@@ -2030,7 +2040,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2250,8 +2260,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2273,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
         <v>63</v>
@@ -2500,7 +2510,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>35</v>
       </c>
@@ -2520,7 +2530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2540,7 +2550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2730,8 +2740,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
       <c r="B79" s="34" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2753,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>35</v>
       </c>
@@ -2763,7 +2773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -2973,8 +2983,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
       <c r="B97" s="34" t="s">
         <v>65</v>
       </c>
@@ -2986,7 +2996,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>35</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3046,7 +3056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3216,8 +3226,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
       <c r="B115" s="34" t="s">
         <v>67</v>
       </c>
@@ -3229,7 +3239,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>35</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3474,7 +3484,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3720,10 +3730,10 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4083,12 +4093,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4189,16 +4199,16 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4353,10 +4363,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4428,18 +4438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4593,22 +4603,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4627,8 +4638,11 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4647,8 +4661,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>6000</v>
       </c>
@@ -4667,8 +4684,11 @@
       <c r="F3" s="26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>6001</v>
       </c>
@@ -4687,8 +4707,11 @@
       <c r="F4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -4706,12 +4729,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4761,7 +4784,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4778,7 +4801,7 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4795,7 +4818,7 @@
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92871F-5329-4877-B2DF-ACBDF5086E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD6472-AB2B-42D1-BB80-D470586AF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1480" windowWidth="27860" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4606,7 +4606,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4636,7 +4636,7 @@
         <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>164</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD6472-AB2B-42D1-BB80-D470586AF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9C66C-0719-491B-A1B3-DC316F2DDF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1480" windowWidth="27860" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -1722,16 +1722,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="32" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2027,8 +2027,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2260,8 +2260,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
         <v>63</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2740,8 +2740,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="34" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>35</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -2983,8 +2983,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="34" t="s">
         <v>65</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>35</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3226,8 +3226,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="34" t="s">
         <v>67</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>35</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3484,7 +3484,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3726,14 +3726,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4093,12 +4093,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4199,16 +4199,16 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4363,10 +4363,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4442,14 +4442,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4605,18 +4605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4729,12 +4729,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9C66C-0719-491B-A1B3-DC316F2DDF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC4914-412A-4B0D-9E0E-F793FAFFF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3727,7 +3727,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L3" s="5">
         <v>0.15</v>
@@ -4825,5 +4825,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC4914-412A-4B0D-9E0E-F793FAFFF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1C539-4682-458E-ACE0-FF896099855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3727,7 +3727,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3894,43 +3894,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P4" s="24">
         <v>1</v>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O5" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" s="24">
         <v>2</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1C539-4682-458E-ACE0-FF896099855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25D87F-1305-4168-93F9-3052B524FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -3727,7 +3727,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3862,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>4</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25D87F-1305-4168-93F9-3052B524FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3B654-645A-4677-99B5-B61012E2C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="ActiveItemEffectData" sheetId="10" r:id="rId7"/>
     <sheet name="ItemData" sheetId="4" r:id="rId8"/>
     <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
+    <sheet name="NPCData" sheetId="11" r:id="rId10"/>
+    <sheet name="DialogueData" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="174">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,6 +1017,34 @@
   </si>
   <si>
     <t>Sprite/SwordIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다섯문장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3476,6 +3506,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B7D43C-C5C7-4236-9CE2-36FD7CA36A5A}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>9001</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>9002</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>9003</v>
+      </c>
+      <c r="B6">
+        <v>8000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>9004</v>
+      </c>
+      <c r="B7">
+        <v>8000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
   <dimension ref="A1:D16"/>
@@ -3726,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4726,7 +4940,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1C539-4682-458E-ACE0-FF896099855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42466BE7-1C8D-4620-8ACF-17A30C995F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3740" windowWidth="27860" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="170">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,6 +1015,18 @@
   </si>
   <si>
     <t>Sprite/SwordIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1722,16 +1734,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
       <c r="B2" s="32" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1755,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2027,8 +2039,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
       <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2052,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2260,8 +2272,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2285,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
         <v>63</v>
@@ -2510,7 +2522,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2740,8 +2752,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
       <c r="B79" s="34" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2765,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>35</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -2983,8 +2995,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
       <c r="B97" s="34" t="s">
         <v>65</v>
       </c>
@@ -2996,7 +3008,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>35</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3226,8 +3238,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
       <c r="B115" s="34" t="s">
         <v>67</v>
       </c>
@@ -3239,7 +3251,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>35</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3484,7 +3496,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3726,14 +3738,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4093,12 +4105,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4199,16 +4211,16 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4363,10 +4375,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4442,14 +4454,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4603,23 +4615,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4641,8 +4653,14 @@
       <c r="G1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4664,8 +4682,14 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>6000</v>
       </c>
@@ -4687,8 +4711,14 @@
       <c r="G3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>6001</v>
       </c>
@@ -4710,8 +4740,14 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -4729,12 +4765,12 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3B654-645A-4677-99B5-B61012E2C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E2A00-045C-4546-BC17-A8D5318CD1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="174">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3557,7 +3557,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3643,7 +3643,15 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>9005</v>
+      </c>
+      <c r="B8">
+        <v>8000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3B654-645A-4677-99B5-B61012E2C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF0ABF-C735-48A4-A7C4-0B84D0A28551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3740" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="177">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,6 +1045,18 @@
   </si>
   <si>
     <t>다섯문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,16 +1764,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
       <c r="B2" s="32" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2057,8 +2069,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
       <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
@@ -2070,7 +2082,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2290,8 +2302,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>60</v>
       </c>
@@ -2303,7 +2315,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
         <v>63</v>
@@ -2540,7 +2552,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2770,8 +2782,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
       <c r="B79" s="34" t="s">
         <v>65</v>
       </c>
@@ -2783,7 +2795,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>35</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2823,7 +2835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2843,7 +2855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3013,8 +3025,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
       <c r="B97" s="34" t="s">
         <v>65</v>
       </c>
@@ -3026,7 +3038,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>35</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3256,8 +3268,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
       <c r="B115" s="34" t="s">
         <v>67</v>
       </c>
@@ -3269,7 +3281,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3514,7 +3526,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3556,13 +3568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B7D43C-C5C7-4236-9CE2-36FD7CA36A5A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3698,7 +3710,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3944,10 +3956,10 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4307,12 +4319,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4413,16 +4425,16 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4577,10 +4589,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4656,14 +4668,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4817,23 +4829,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4855,8 +4867,14 @@
       <c r="G1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4878,8 +4896,14 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>6000</v>
       </c>
@@ -4901,8 +4925,14 @@
       <c r="G3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>6001</v>
       </c>
@@ -4924,8 +4954,14 @@
       <c r="G4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -4943,12 +4979,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF0ABF-C735-48A4-A7C4-0B84D0A28551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED903C-E976-4AA5-9253-2E263E7FCB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3740" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14150" yWindow="4150" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="181">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1057,22 @@
   </si>
   <si>
     <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackOra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 오라를 풍기는 아이템. 사용자의 기본공격에 검은이펙트가 추가되고 공격범위가 늘어난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/BowIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/BlackOraIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4583,20 +4599,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="29.58203125" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4612,8 +4629,11 @@
       <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4629,8 +4649,11 @@
       <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>4000</v>
       </c>
@@ -4646,12 +4669,31 @@
       <c r="E3" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51">
+      <c r="A4" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4">
+        <v>301</v>
+      </c>
+      <c r="D4">
+        <v>5002</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -4831,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF0ABF-C735-48A4-A7C4-0B84D0A28551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DBB28-0B67-4604-AA8B-A5E21AE70F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3740" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>ConditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PConditionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,13 +694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AffectedTarget</t>
-  </si>
-  <si>
-    <t>AffectedTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,10 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>affectedTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,6 +1042,21 @@
   </si>
   <si>
     <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectedTarget</t>
+  </si>
+  <si>
+    <t>EffectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,48 +1764,48 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="G2" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1813,19 +1813,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1833,16 +1833,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1853,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1864,10 +1864,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -1878,10 +1878,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -1906,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1923,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -1951,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -1962,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -1993,7 +1993,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
@@ -2021,7 +2021,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>6</v>
@@ -2035,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
@@ -2046,10 +2046,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>6</v>
@@ -2060,49 +2060,49 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="G25" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2110,16 +2110,16 @@
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2130,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2146,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>6</v>
@@ -2157,10 +2157,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>6</v>
@@ -2171,10 +2171,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -2199,10 +2199,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>6</v>
@@ -2216,7 +2216,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>6</v>
@@ -2230,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>6</v>
@@ -2244,7 +2244,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>6</v>
@@ -2272,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>6</v>
@@ -2302,40 +2302,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2343,19 +2343,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2363,16 +2363,16 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2383,7 +2383,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>6</v>
@@ -2394,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>6</v>
@@ -2408,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
@@ -2425,7 +2425,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>6</v>
@@ -2436,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>6</v>
@@ -2453,7 +2453,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>6</v>
@@ -2467,7 +2467,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>6</v>
@@ -2481,7 +2481,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>6</v>
@@ -2492,10 +2492,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>6</v>
@@ -2509,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>6</v>
@@ -2539,40 +2539,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="36"/>
       <c r="G61" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G62" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2580,19 +2580,19 @@
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2600,19 +2600,19 @@
         <v>12</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2620,16 +2620,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -2637,10 +2637,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>6</v>
@@ -2651,10 +2651,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>6</v>
@@ -2668,7 +2668,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
@@ -2679,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
@@ -2696,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>6</v>
@@ -2752,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>6</v>
@@ -2782,40 +2782,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="36"/>
       <c r="G79" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G80" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2823,19 +2823,19 @@
         <v>4</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2843,19 +2843,19 @@
         <v>12</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -2863,16 +2863,16 @@
         <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -2880,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>6</v>
@@ -2894,10 +2894,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
@@ -2911,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
@@ -2922,10 +2922,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
@@ -2939,7 +2939,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
@@ -2953,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>6</v>
@@ -2967,7 +2967,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>6</v>
@@ -2978,10 +2978,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>6</v>
@@ -2995,7 +2995,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>6</v>
@@ -3025,40 +3025,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="36"/>
       <c r="G97" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G98" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3066,19 +3066,19 @@
         <v>4</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3086,19 +3086,19 @@
         <v>12</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3106,16 +3106,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3123,10 +3123,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>6</v>
@@ -3137,10 +3137,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>6</v>
@@ -3154,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>6</v>
@@ -3165,10 +3165,10 @@
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>6</v>
@@ -3182,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>6</v>
@@ -3196,7 +3196,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>6</v>
@@ -3210,7 +3210,7 @@
         <v>23</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>6</v>
@@ -3221,10 +3221,10 @@
         <v>10</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>6</v>
@@ -3238,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>6</v>
@@ -3268,40 +3268,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="36"/>
       <c r="G115" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G116" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3309,16 +3309,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -3329,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>5</v>
@@ -3345,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>6</v>
@@ -3356,10 +3356,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>6</v>
@@ -3370,10 +3370,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>6</v>
@@ -3387,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>6</v>
@@ -3398,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>6</v>
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>6</v>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>6</v>
@@ -3443,7 +3443,7 @@
         <v>23</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>6</v>
@@ -3454,10 +3454,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>6</v>
@@ -3471,7 +3471,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>6</v>
@@ -3526,7 +3526,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3549,7 +3549,7 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3572,9 +3572,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3582,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3607,7 +3607,7 @@
         <v>8000</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3618,7 +3618,7 @@
         <v>8000</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>8000</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3640,7 +3640,7 @@
         <v>8000</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3651,7 +3651,7 @@
         <v>8000</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3707,10 +3707,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3747,21 +3747,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3770,124 +3770,124 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>401</v>
@@ -3896,12 +3896,12 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>402</v>
@@ -3910,35 +3910,35 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>501</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3956,10 +3956,10 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3973,22 +3973,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>22</v>
@@ -4009,7 +4009,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4316,15 +4316,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4402,7 +4402,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3002</v>
@@ -4422,19 +4422,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4445,16 +4445,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>31</v>
@@ -4468,10 +4468,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -4488,7 +4488,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>201</v>
@@ -4497,13 +4497,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>-10</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4511,7 +4511,7 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>201</v>
@@ -4520,13 +4520,13 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4534,7 +4534,7 @@
         <v>3500</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>202</v>
@@ -4549,7 +4549,7 @@
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4557,7 +4557,7 @@
         <v>3002</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -4566,13 +4566,13 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4589,10 +4589,10 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4604,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4621,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4644,7 +4644,7 @@
         <v>5001</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4668,48 +4668,48 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4739,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>6</v>
@@ -4756,7 +4756,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4790,7 +4790,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="28">
         <v>501</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4832,17 +4832,17 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4853,25 +4853,25 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4882,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -4908,28 +4908,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4937,28 +4937,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4979,12 +4979,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4998,7 +4998,7 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -5026,7 +5026,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -5035,7 +5035,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5043,7 +5043,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -5052,7 +5052,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5060,7 +5060,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -5069,7 +5069,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED903C-E976-4AA5-9253-2E263E7FCB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1207CE2-E976-45D5-BEE1-6D5FB0F164D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14150" yWindow="4150" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>ConditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PConditionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,13 +694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AffectedTarget</t>
-  </si>
-  <si>
-    <t>AffectedTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,10 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>affectedTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,6 +1058,21 @@
   </si>
   <si>
     <t>Sprite/BlackOraIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectedTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectedTarget</t>
+  </si>
+  <si>
+    <t>EffectedTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1780,48 +1780,48 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="G2" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1829,19 +1829,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1849,16 +1849,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1869,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1880,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -1894,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -1911,7 +1911,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -1922,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1939,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -1953,7 +1953,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -1967,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -1978,10 +1978,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
@@ -1995,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -2009,7 +2009,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
@@ -2023,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
@@ -2037,7 +2037,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>6</v>
@@ -2051,7 +2051,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
@@ -2062,10 +2062,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>6</v>
@@ -2076,49 +2076,49 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="G25" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2126,16 +2126,16 @@
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2146,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2162,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>6</v>
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>6</v>
@@ -2187,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>6</v>
@@ -2232,7 +2232,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>6</v>
@@ -2246,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>6</v>
@@ -2271,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>6</v>
@@ -2288,7 +2288,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>6</v>
@@ -2318,40 +2318,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2359,19 +2359,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2399,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>6</v>
@@ -2410,10 +2410,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>6</v>
@@ -2424,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
@@ -2441,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>6</v>
@@ -2452,10 +2452,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>6</v>
@@ -2469,7 +2469,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>6</v>
@@ -2483,7 +2483,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>6</v>
@@ -2497,7 +2497,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>6</v>
@@ -2508,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>6</v>
@@ -2525,7 +2525,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>6</v>
@@ -2555,40 +2555,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="36"/>
       <c r="G61" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G62" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2596,19 +2596,19 @@
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2616,19 +2616,19 @@
         <v>12</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2636,16 +2636,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -2653,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>6</v>
@@ -2667,10 +2667,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>6</v>
@@ -2684,7 +2684,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
@@ -2712,7 +2712,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>6</v>
@@ -2740,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>6</v>
@@ -2751,10 +2751,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>6</v>
@@ -2768,7 +2768,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>6</v>
@@ -2798,40 +2798,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="36"/>
       <c r="G79" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G80" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2839,19 +2839,19 @@
         <v>4</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2859,19 +2859,19 @@
         <v>12</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -2879,16 +2879,16 @@
         <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -2896,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>6</v>
@@ -2910,10 +2910,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
@@ -2927,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
@@ -2938,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
@@ -2955,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
@@ -2969,7 +2969,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>6</v>
@@ -2983,7 +2983,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>6</v>
@@ -2994,10 +2994,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>6</v>
@@ -3011,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>6</v>
@@ -3041,40 +3041,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="36"/>
       <c r="G97" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G98" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3082,19 +3082,19 @@
         <v>4</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3102,19 +3102,19 @@
         <v>12</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3122,16 +3122,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3139,10 +3139,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>6</v>
@@ -3153,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>6</v>
@@ -3170,7 +3170,7 @@
         <v>19</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>6</v>
@@ -3181,10 +3181,10 @@
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>6</v>
@@ -3198,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>6</v>
@@ -3212,7 +3212,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>6</v>
@@ -3226,7 +3226,7 @@
         <v>23</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>6</v>
@@ -3237,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>6</v>
@@ -3284,40 +3284,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="36"/>
       <c r="G115" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G116" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3325,16 +3325,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -3345,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>5</v>
@@ -3361,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>6</v>
@@ -3372,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>6</v>
@@ -3386,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>6</v>
@@ -3403,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>6</v>
@@ -3414,10 +3414,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>6</v>
@@ -3431,7 +3431,7 @@
         <v>21</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>6</v>
@@ -3445,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>6</v>
@@ -3459,7 +3459,7 @@
         <v>23</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>6</v>
@@ -3470,10 +3470,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>6</v>
@@ -3487,7 +3487,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>6</v>
@@ -3542,7 +3542,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3565,7 +3565,7 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3588,9 +3588,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3598,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>8000</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>8000</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>8000</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>8000</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>8000</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3723,10 +3723,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3763,21 +3763,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3786,124 +3786,124 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>401</v>
@@ -3912,12 +3912,12 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>402</v>
@@ -3926,35 +3926,35 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>501</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3972,10 +3972,10 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3989,22 +3989,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>22</v>
@@ -4025,7 +4025,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4335,12 +4335,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3002</v>
@@ -4438,19 +4438,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4461,16 +4461,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>31</v>
@@ -4484,10 +4484,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -4504,7 +4504,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>201</v>
@@ -4513,13 +4513,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>-10</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4527,7 +4527,7 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>201</v>
@@ -4536,13 +4536,13 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4550,7 +4550,7 @@
         <v>3500</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>202</v>
@@ -4565,7 +4565,7 @@
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4573,7 +4573,7 @@
         <v>3002</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -4582,13 +4582,13 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4602,14 +4602,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4621,16 +4621,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4641,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4667,18 +4667,18 @@
         <v>5001</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>301</v>
@@ -4687,10 +4687,10 @@
         <v>5002</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4710,48 +4710,48 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -4766,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4781,7 +4781,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>6</v>
@@ -4798,7 +4798,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4832,7 +4832,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="28">
         <v>501</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4877,14 +4877,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4895,25 +4895,25 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -4950,28 +4950,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4979,28 +4979,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5021,12 +5021,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5040,7 +5040,7 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -5068,7 +5068,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -5077,7 +5077,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5085,7 +5085,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -5094,7 +5094,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5102,7 +5102,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -5111,7 +5111,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1207CE2-E976-45D5-BEE1-6D5FB0F164D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC9D4A5-4090-4670-92C4-18A9CC5DA250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="184">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1075,12 +1075,23 @@
     <t>EffectedTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sprite/GunIcon</t>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1200,14 @@
       <name val="Nanum Gothic Coding"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1397,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1493,6 +1512,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -4602,7 +4622,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4693,8 +4713,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:6" ht="17.25">
+      <c r="A5" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5">
+        <v>302</v>
+      </c>
+      <c r="D5">
+        <v>5001</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC9D4A5-4090-4670-92C4-18A9CC5DA250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAF0BF-B4D0-4968-B43C-F6E3E367CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14150" yWindow="4150" windowWidth="20690" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="184">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,14 +1076,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 @증가한다.</t>
+  </si>
+  <si>
     <t>Sprite/GunIcon</t>
-  </si>
-  <si>
-    <t>Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,6 +1491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1512,7 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -1800,28 +1800,28 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2105,20 +2105,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B25" s="32" t="s">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="G25" s="33" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="G25" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2338,8 +2338,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2575,20 +2575,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="37"/>
       <c r="G61" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>34</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2818,20 +2818,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B79" s="34" t="s">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B79" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="37"/>
       <c r="G79" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3061,20 +3061,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B97" s="34" t="s">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B97" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="37"/>
       <c r="G97" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>34</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3304,20 +3304,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B115" s="34" t="s">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B115" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="37"/>
       <c r="G115" s="20" t="s">
         <v>67</v>
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3562,7 +3562,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3608,9 +3608,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3746,7 +3746,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3992,10 +3992,10 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4355,12 +4355,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4461,16 +4461,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4621,15 +4621,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4693,7 +4693,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.5">
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
@@ -4713,25 +4713,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25">
-      <c r="A5" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5">
-        <v>302</v>
-      </c>
-      <c r="D5">
-        <v>5001</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>181</v>
-      </c>
+    <row r="5" spans="1:6" ht="17.5">
+      <c r="A5" s="1"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4747,14 +4732,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4910,18 +4895,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5041,7 +5026,33 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5058,12 +5069,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAF0BF-B4D0-4968-B43C-F6E3E367CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB27673-592F-422C-9D2F-586F6F64492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14150" yWindow="4150" windowWidth="20690" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="189">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,6 +1084,26 @@
   </si>
   <si>
     <t>Sprite/GunIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,16 +1820,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1841,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1861,7 +1881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2105,8 +2125,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2138,7 @@
       </c>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +2158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2338,8 +2358,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2371,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2575,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="35" t="s">
         <v>62</v>
@@ -2588,7 +2608,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>34</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2628,7 +2648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2818,8 +2838,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="35" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2851,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3061,8 +3081,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="35" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3094,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>34</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3114,7 +3134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3134,7 +3154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3304,8 +3324,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="35" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3337,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3562,7 +3582,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3608,9 +3628,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3740,13 +3760,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3975,6 +3995,20 @@
       </c>
       <c r="D16" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>503</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3992,10 +4026,10 @@
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4355,12 +4389,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4461,16 +4495,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4625,11 +4659,11 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4693,7 +4727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51">
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
@@ -4713,7 +4747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="1"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -4726,20 +4760,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4883,7 +4917,70 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+      <c r="A5" s="29">
+        <v>5002</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="28">
+        <v>502</v>
+      </c>
+      <c r="D5" s="29">
+        <v>60</v>
+      </c>
+      <c r="E5" s="29">
+        <v>10</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>6</v>
+      </c>
+      <c r="H5" s="28">
+        <v>402</v>
+      </c>
+      <c r="I5" s="28">
+        <v>20</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29">
+        <v>5003</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="28">
+        <v>503</v>
+      </c>
+      <c r="D6" s="29">
+        <v>60</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6</v>
+      </c>
+      <c r="H6" s="28">
+        <v>402</v>
+      </c>
+      <c r="I6" s="28">
+        <v>20</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4895,18 +4992,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5069,12 +5166,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAF0BF-B4D0-4968-B43C-F6E3E367CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700FF24A-00B9-42F1-AAD5-5496F88ADEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14150" yWindow="4150" windowWidth="20690" windowHeight="15460" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -1800,16 +1800,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2105,8 +2105,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2338,8 +2338,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="35" t="s">
         <v>62</v>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>34</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2818,8 +2818,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="35" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3061,8 +3061,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="35" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>34</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3304,8 +3304,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="35" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3562,7 +3562,7 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -3608,9 +3608,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3735,6 +3735,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3746,7 +3747,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3988,14 +3989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4130,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5">
         <v>0.15</v>
@@ -4355,12 +4356,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4461,16 +4462,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4625,11 +4626,11 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4693,7 +4694,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51">
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="1"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -4732,14 +4733,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4895,18 +4896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5069,12 +5070,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB27673-592F-422C-9D2F-586F6F64492C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27345FA-6439-4FEA-A534-70153A66F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -3755,6 +3755,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4022,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4164,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5">
         <v>0.15</v>
@@ -4762,7 +4763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27345FA-6439-4FEA-A534-70153A66F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B20305-2878-4DB0-99B3-8DBCCFFDBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2340" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="197">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,6 +1104,36 @@
   </si>
   <si>
     <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopItemIDs</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6001,6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1512,6 +1542,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1820,28 +1851,28 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="G2" s="31" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1881,7 +1912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2125,20 +2156,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B25" s="33" t="s">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B25" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="34" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2158,7 +2189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2358,8 +2389,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2371,7 +2402,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -2391,7 +2422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2411,7 +2442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2595,20 +2626,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="G61" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>34</v>
       </c>
@@ -2628,7 +2659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2648,7 +2679,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2668,7 +2699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2838,20 +2869,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B79" s="35" t="s">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B79" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="G79" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -2871,7 +2902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2891,7 +2922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2911,7 +2942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3081,20 +3112,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B97" s="35" t="s">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B97" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38"/>
       <c r="G97" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>34</v>
       </c>
@@ -3114,7 +3145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3134,7 +3165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3154,7 +3185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3324,20 +3355,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B115" s="35" t="s">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B115" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="38"/>
       <c r="G115" s="20" t="s">
         <v>67</v>
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>34</v>
       </c>
@@ -3357,7 +3388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3576,42 +3607,74 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="16.58203125" style="31" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C3" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -3628,9 +3691,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3767,7 +3830,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -4023,14 +4086,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4390,12 +4453,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4496,16 +4559,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4660,11 +4723,11 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4728,7 +4791,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.5">
+    <row r="4" spans="1:6" ht="51">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
@@ -4748,7 +4811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25">
+    <row r="5" spans="1:6" ht="17.5">
       <c r="A5" s="1"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -4767,14 +4830,14 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4997,14 +5060,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5167,12 +5230,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B20305-2878-4DB0-99B3-8DBCCFFDBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F469B1D9-5DB6-457F-8BD3-56C921874EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2340" windowWidth="20690" windowHeight="15460" tabRatio="818" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="198">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -990,10 +990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IconPath</t>
   </si>
   <si>
@@ -1134,6 +1130,14 @@
   </si>
   <si>
     <t>Merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,16 +1855,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="34" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2156,8 +2160,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="34" t="s">
         <v>56</v>
       </c>
@@ -2169,7 +2173,7 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2389,8 +2393,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="36" t="s">
         <v>62</v>
@@ -2639,7 +2643,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>34</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2869,8 +2873,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="36" t="s">
         <v>64</v>
       </c>
@@ -2882,7 +2886,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>34</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3112,8 +3116,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="36" t="s">
         <v>64</v>
       </c>
@@ -3125,7 +3129,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>34</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3355,8 +3359,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="36" t="s">
         <v>66</v>
       </c>
@@ -3368,7 +3372,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>34</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3609,13 +3613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.58203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3626,10 +3630,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3640,10 +3644,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3651,13 +3655,13 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3665,13 +3669,13 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3691,9 +3695,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3701,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>152</v>
@@ -3726,7 +3730,7 @@
         <v>8000</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3737,7 +3741,7 @@
         <v>8000</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3748,7 +3752,7 @@
         <v>8000</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3759,7 +3763,7 @@
         <v>8000</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3770,7 +3774,7 @@
         <v>8000</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3827,10 +3831,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3867,7 +3871,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3881,7 +3885,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3895,7 +3899,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3909,7 +3913,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -4069,10 +4073,10 @@
         <v>503</v>
       </c>
       <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
         <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4086,14 +4090,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4453,12 +4457,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4556,19 +4560,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="45.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4582,10 +4586,10 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
         <v>149</v>
@@ -4605,7 +4609,7 @@
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -4723,11 +4727,11 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4748,7 +4752,7 @@
         <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4788,15 +4792,15 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>301</v>
@@ -4805,13 +4809,13 @@
         <v>5002</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="1"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
@@ -4826,18 +4830,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4871,9 +4875,12 @@
         <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="27"/>
@@ -4912,6 +4919,9 @@
       <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="L2" s="28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="29">
@@ -4942,7 +4952,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>143</v>
       </c>
       <c r="M3" s="1"/>
@@ -4976,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4985,7 +4995,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="28">
         <v>502</v>
@@ -5009,8 +5019,8 @@
         <v>20</v>
       </c>
       <c r="J5" s="29"/>
-      <c r="K5" s="29" t="s">
-        <v>187</v>
+      <c r="L5" s="29" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5018,7 +5028,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="28">
         <v>503</v>
@@ -5042,8 +5052,8 @@
         <v>20</v>
       </c>
       <c r="J6" s="29"/>
-      <c r="K6" s="29" t="s">
-        <v>188</v>
+      <c r="L6" s="29" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5060,14 +5070,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5090,13 +5100,13 @@
         <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5148,13 +5158,13 @@
         <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5177,13 +5187,13 @@
         <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5191,7 +5201,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -5203,16 +5213,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
         <v>182</v>
-      </c>
-      <c r="G5" t="s">
-        <v>183</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5230,12 +5240,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F469B1D9-5DB6-457F-8BD3-56C921874EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27F873-A88B-4781-82EB-F4BF44064D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -4090,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="L3" s="5">
         <v>0.15</v>
@@ -4830,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27F873-A88B-4781-82EB-F4BF44064D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E12FE-2ABB-42EC-AEC3-8885036F7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -4090,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4830,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E12FE-2ABB-42EC-AEC3-8885036F7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B2AF8-73DC-40E7-81DF-8402FEEE2778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="202">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,6 +1138,22 @@
   </si>
   <si>
     <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간 범위공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Zone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3692,7 +3708,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3828,10 +3844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4077,6 +4093,20 @@
       </c>
       <c r="D17" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18">
+        <v>504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4828,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:R14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5054,6 +5084,39 @@
       <c r="J6" s="29"/>
       <c r="L6" s="29" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="29">
+        <v>5004</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="28">
+        <v>504</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6</v>
+      </c>
+      <c r="H7" s="28">
+        <v>402</v>
+      </c>
+      <c r="I7" s="28">
+        <v>20</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="L7" s="29" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B2AF8-73DC-40E7-81DF-8402FEEE2778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05762CA-CB8C-4E0A-8563-0902D9914AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="197">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>ChaseRange</t>
-  </si>
-  <si>
-    <t>Stamina</t>
   </si>
   <si>
     <t>StaminaRegen</t>
@@ -870,22 +867,6 @@
   </si>
   <si>
     <t>Cooldown</t>
-  </si>
-  <si>
-    <t>CostType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bow</t>
@@ -1882,34 +1863,34 @@
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
       <c r="G2" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1">
@@ -1920,16 +1901,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
@@ -1940,16 +1921,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1960,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -1971,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -1985,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -1999,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -2013,10 +1994,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -2027,10 +2008,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -2041,10 +2022,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -2055,10 +2036,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -2069,10 +2050,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
@@ -2083,10 +2064,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -2097,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
@@ -2114,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
@@ -2125,10 +2106,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>6</v>
@@ -2142,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
@@ -2153,10 +2134,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>6</v>
@@ -2167,10 +2148,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>6</v>
@@ -2179,34 +2160,34 @@
     <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="G25" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" thickBot="1">
@@ -2217,16 +2198,16 @@
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2237,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2253,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>6</v>
@@ -2264,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>6</v>
@@ -2278,10 +2259,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -2292,10 +2273,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -2306,10 +2287,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>6</v>
@@ -2320,10 +2301,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>6</v>
@@ -2334,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>6</v>
@@ -2348,10 +2329,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>6</v>
@@ -2362,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>6</v>
@@ -2376,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>6</v>
@@ -2390,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
@@ -2412,34 +2393,34 @@
     <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G44" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="17.25" thickBot="1">
@@ -2450,16 +2431,16 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17.25" thickBot="1">
@@ -2470,16 +2451,16 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2490,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>6</v>
@@ -2501,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>6</v>
@@ -2515,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
@@ -2529,10 +2510,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>6</v>
@@ -2543,10 +2524,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>6</v>
@@ -2557,10 +2538,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>6</v>
@@ -2571,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>6</v>
@@ -2585,10 +2566,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>6</v>
@@ -2599,10 +2580,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>6</v>
@@ -2613,10 +2594,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>6</v>
@@ -2627,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
@@ -2649,34 +2630,34 @@
     <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="38"/>
       <c r="G61" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G62" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="17.25" thickBot="1">
@@ -2687,16 +2668,16 @@
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1">
@@ -2707,16 +2688,16 @@
         <v>12</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="17.25" thickBot="1">
@@ -2727,16 +2708,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -2744,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>6</v>
@@ -2758,10 +2739,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>6</v>
@@ -2772,10 +2753,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
@@ -2786,10 +2767,10 @@
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
@@ -2800,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
@@ -2814,10 +2795,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>6</v>
@@ -2828,10 +2809,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>6</v>
@@ -2842,10 +2823,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>6</v>
@@ -2856,10 +2837,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>6</v>
@@ -2870,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
@@ -2892,34 +2873,34 @@
     <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
       <c r="E79" s="38"/>
       <c r="G79" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G80" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="17.25" thickBot="1">
@@ -2930,16 +2911,16 @@
         <v>4</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="17.25" thickBot="1">
@@ -2950,16 +2931,16 @@
         <v>12</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="17.25" thickBot="1">
@@ -2970,16 +2951,16 @@
         <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -2987,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>6</v>
@@ -3001,10 +2982,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
@@ -3015,10 +2996,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
@@ -3029,10 +3010,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
@@ -3043,10 +3024,10 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
@@ -3057,10 +3038,10 @@
         <v>8</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>6</v>
@@ -3071,10 +3052,10 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>6</v>
@@ -3085,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>6</v>
@@ -3099,10 +3080,10 @@
         <v>11</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>6</v>
@@ -3113,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3135,34 +3116,34 @@
     <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="38"/>
       <c r="G97" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H97" s="21"/>
     </row>
     <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G98" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="17.25" thickBot="1">
@@ -3173,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="17.25" thickBot="1">
@@ -3193,16 +3174,16 @@
         <v>12</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="17.25" thickBot="1">
@@ -3213,16 +3194,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3230,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>6</v>
@@ -3244,10 +3225,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>6</v>
@@ -3258,10 +3239,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>6</v>
@@ -3272,10 +3253,10 @@
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>6</v>
@@ -3286,10 +3267,10 @@
         <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>6</v>
@@ -3300,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>6</v>
@@ -3314,10 +3295,10 @@
         <v>9</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>6</v>
@@ -3328,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>6</v>
@@ -3342,10 +3323,10 @@
         <v>11</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>6</v>
@@ -3356,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3378,34 +3359,34 @@
     <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="38"/>
       <c r="G115" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H115" s="21"/>
     </row>
     <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G116" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="17.25" thickBot="1">
@@ -3416,16 +3397,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -3436,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>5</v>
@@ -3452,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>6</v>
@@ -3463,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>6</v>
@@ -3477,10 +3458,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>6</v>
@@ -3491,10 +3472,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>6</v>
@@ -3505,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>6</v>
@@ -3519,10 +3500,10 @@
         <v>7</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>6</v>
@@ -3533,10 +3514,10 @@
         <v>8</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>6</v>
@@ -3547,10 +3528,10 @@
         <v>9</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>6</v>
@@ -3561,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>6</v>
@@ -3575,10 +3556,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>6</v>
@@ -3589,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3646,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3660,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3671,13 +3652,13 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3685,13 +3666,13 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3721,10 +3702,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3746,7 +3727,7 @@
         <v>8000</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3757,7 +3738,7 @@
         <v>8000</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3768,7 +3749,7 @@
         <v>8000</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3779,7 +3760,7 @@
         <v>8000</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3790,7 +3771,7 @@
         <v>8000</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3844,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3887,226 +3868,198 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>301</v>
       </c>
       <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B13">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B14">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B15">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17">
-        <v>503</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18">
-        <v>504</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4141,43 +4094,43 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4191,37 +4144,37 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>6</v>
@@ -4235,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>100</v>
@@ -4503,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4570,7 +4523,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>3002</v>
@@ -4613,19 +4566,19 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4636,13 +4589,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -4656,7 +4609,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>201</v>
@@ -4665,13 +4618,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>-10</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4679,7 +4632,7 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>201</v>
@@ -4688,13 +4641,13 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4702,7 +4655,7 @@
         <v>3500</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>202</v>
@@ -4711,13 +4664,13 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4725,7 +4678,7 @@
         <v>3002</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -4734,13 +4687,13 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4773,16 +4726,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4793,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -4810,7 +4763,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4819,10 +4772,10 @@
         <v>5001</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5">
@@ -4830,7 +4783,7 @@
         <v>4001</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>301</v>
@@ -4839,10 +4792,10 @@
         <v>5002</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
@@ -4860,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4878,39 +4831,33 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="27"/>
@@ -4923,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4938,18 +4885,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4958,7 +4899,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4975,15 +4916,9 @@
       <c r="G3" s="29">
         <v>5</v>
       </c>
-      <c r="H3" s="28">
-        <v>402</v>
-      </c>
-      <c r="I3" s="28">
-        <v>10</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>143</v>
+      <c r="H3" s="29"/>
+      <c r="J3" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4992,7 +4927,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C4" s="28">
         <v>501</v>
@@ -5009,15 +4944,9 @@
       <c r="G4" s="29">
         <v>6</v>
       </c>
-      <c r="H4" s="28">
-        <v>402</v>
-      </c>
-      <c r="I4" s="28">
-        <v>12</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="L4" s="29" t="s">
-        <v>145</v>
+      <c r="H4" s="29"/>
+      <c r="J4" s="29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5025,7 +4954,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C5" s="28">
         <v>502</v>
@@ -5042,15 +4971,9 @@
       <c r="G5" s="29">
         <v>6</v>
       </c>
-      <c r="H5" s="28">
-        <v>402</v>
-      </c>
-      <c r="I5" s="28">
-        <v>20</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="L5" s="29" t="s">
-        <v>186</v>
+      <c r="H5" s="29"/>
+      <c r="J5" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5058,7 +4981,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C6" s="28">
         <v>503</v>
@@ -5075,15 +4998,9 @@
       <c r="G6" s="29">
         <v>6</v>
       </c>
-      <c r="H6" s="28">
-        <v>402</v>
-      </c>
-      <c r="I6" s="28">
-        <v>20</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="L6" s="29" t="s">
-        <v>187</v>
+      <c r="H6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5091,7 +5008,7 @@
         <v>5004</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C7" s="28">
         <v>504</v>
@@ -5108,15 +5025,9 @@
       <c r="G7" s="29">
         <v>6</v>
       </c>
-      <c r="H7" s="28">
-        <v>402</v>
-      </c>
-      <c r="I7" s="28">
-        <v>20</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="L7" s="29" t="s">
-        <v>200</v>
+      <c r="H7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5151,25 +5062,25 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5180,10 +5091,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5206,28 +5117,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5235,28 +5146,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5264,28 +5175,28 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C5">
         <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5319,13 +5230,13 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5336,7 +5247,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5350,16 +5261,16 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5367,16 +5278,16 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5384,16 +5295,16 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05762CA-CB8C-4E0A-8563-0902D9914AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32D8E7-C0C2-448E-A46E-43831209970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="ItemData" sheetId="4" r:id="rId8"/>
     <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
     <sheet name="NPCData" sheetId="11" r:id="rId10"/>
-    <sheet name="DialogueData" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="197">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPCID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>첫문장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,54 +1082,59 @@
     <t>shopItemIDs</t>
   </si>
   <si>
+    <t>lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6001,6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간 범위공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>List&lt;int&gt;</t>
-  </si>
-  <si>
-    <t>lee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,6001,6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merchant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속시간 범위공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 지속 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3608,18 +3608,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3627,13 +3628,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3641,13 +3645,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -3655,171 +3662,77 @@
         <v>157</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>8001</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>187</v>
-      </c>
       <c r="D4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B7D43C-C5C7-4236-9CE2-36FD7CA36A5A}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="B3">
-        <v>8000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>9001</v>
-      </c>
-      <c r="B4">
-        <v>8000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>9002</v>
-      </c>
-      <c r="B5">
-        <v>8000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>9003</v>
-      </c>
-      <c r="B6">
-        <v>8000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>9004</v>
-      </c>
-      <c r="B7">
-        <v>8000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3827,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A16A2-675D-4491-95B8-650037D970BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3868,7 +3781,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3882,7 +3795,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3896,7 +3809,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3910,7 +3823,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -4042,10 +3955,10 @@
         <v>503</v>
       </c>
       <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4056,10 +3969,10 @@
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4569,10 +4482,10 @@
         <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
         <v>144</v>
@@ -4592,7 +4505,7 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -4775,7 +4688,7 @@
         <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5">
@@ -4783,7 +4696,7 @@
         <v>4001</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>301</v>
@@ -4792,10 +4705,10 @@
         <v>5002</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
@@ -4852,10 +4765,10 @@
         <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -4954,7 +4867,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="28">
         <v>502</v>
@@ -4973,7 +4886,7 @@
       </c>
       <c r="H5" s="29"/>
       <c r="J5" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4981,7 +4894,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="28">
         <v>503</v>
@@ -5000,7 +4913,7 @@
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5008,7 +4921,7 @@
         <v>5004</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="28">
         <v>504</v>
@@ -5027,7 +4940,7 @@
       </c>
       <c r="H7" s="29"/>
       <c r="J7" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5077,10 +4990,10 @@
         <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5138,7 +5051,7 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5167,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5175,7 +5088,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -5187,16 +5100,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
         <v>176</v>
-      </c>
-      <c r="G5" t="s">
-        <v>177</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPClub\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32D8E7-C0C2-448E-A46E-43831209970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966A9D2-1033-49A6-848D-3B03FB6FD9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="217">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,6 +1135,86 @@
   </si>
   <si>
     <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬확률증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너가 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도가 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬확률이 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지가 @증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3610,7 +3690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -3733,6 +3813,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3987,7 +4068,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4031,10 +4112,10 @@
         <v>22</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>25</v>
@@ -5121,21 +5202,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5146,13 +5228,16 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5166,59 +5251,723 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>7003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>7004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966A9D2-1033-49A6-848D-3B03FB6FD9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA9061C-3CB9-4D3F-89BB-EA23FA5CDAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="218">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1215,10 @@
   </si>
   <si>
     <t>크리티컬데미지가 @증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3690,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3808,7 +3812,12 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>8002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5204,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA9061C-3CB9-4D3F-89BB-EA23FA5CDAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AE883-BD7E-47BE-B291-0F4C9021C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="220">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillID</t>
   </si>
   <si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화살 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire Arrow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,14 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlackOra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은 오라를 풍기는 아이템. 사용자의 기본공격에 검은이펙트가 추가되고 공격범위가 늘어난다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/BowIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,10 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireWall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화염 범위 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,6 +1199,34 @@
   </si>
   <si>
     <t>gong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/EnergyProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염을 일으킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/GreenLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 회오리를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/FireTornado</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,14 +1343,6 @@
       <name val="Nanum Gothic Coding"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1551,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1626,8 +1626,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1946,16 +1954,16 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="G2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
@@ -2243,16 +2251,16 @@
     </row>
     <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="35" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
@@ -2713,12 +2721,12 @@
     </row>
     <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
       <c r="G61" s="20" t="s">
         <v>62</v>
       </c>
@@ -2956,12 +2964,12 @@
     </row>
     <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="38"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="40"/>
       <c r="G79" s="20" t="s">
         <v>64</v>
       </c>
@@ -3199,12 +3207,12 @@
     </row>
     <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="38"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
       <c r="G97" s="20" t="s">
         <v>64</v>
       </c>
@@ -3442,12 +3450,12 @@
     </row>
     <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="38"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
       <c r="G115" s="20" t="s">
         <v>66</v>
       </c>
@@ -3694,13 +3702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3711,14 +3719,14 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>182</v>
+      <c r="C1" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3728,14 +3736,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>195</v>
+      <c r="C2" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3743,28 +3751,28 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>158</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>160</v>
-      </c>
-      <c r="H3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3772,43 +3780,43 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
       <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>160</v>
       </c>
-      <c r="H4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" t="s">
-        <v>162</v>
-      </c>
       <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
         <v>158</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>159</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>160</v>
-      </c>
-      <c r="M4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3816,7 +3824,7 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3879,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3885,7 +3893,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3899,7 +3907,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3913,7 +3921,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -4011,58 +4019,58 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13">
         <v>501</v>
       </c>
       <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
         <v>134</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4132,7 @@
         <v>45</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>25</v>
@@ -4526,7 +4534,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>3002</v>
@@ -4569,16 +4577,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>30</v>
@@ -4595,7 +4603,7 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -4612,7 +4620,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>201</v>
@@ -4627,7 +4635,7 @@
         <v>-10</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4650,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4673,7 +4681,7 @@
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4696,7 +4704,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4707,21 +4715,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="82.25" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4729,19 +4737,19 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4761,50 +4769,86 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A4" s="32">
+        <v>4001</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="31">
+        <v>301</v>
+      </c>
+      <c r="D4" s="31">
         <v>5001</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.5">
-      <c r="A4" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4">
+      <c r="E4" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4002</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5">
         <v>301</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="31">
+        <v>5003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4003</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>301</v>
+      </c>
+      <c r="D6">
         <v>5002</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4814,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4825,7 +4869,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
@@ -4834,31 +4878,31 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -4873,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4902,13 +4946,13 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
       </c>
       <c r="D3" s="29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" s="29">
         <v>3</v>
@@ -4917,29 +4961,30 @@
         <v>0</v>
       </c>
       <c r="G3" s="29">
-        <v>5</v>
-      </c>
-      <c r="H3" s="29"/>
+        <v>6</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>213</v>
+      </c>
       <c r="J3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29">
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="C4" s="28">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D4" s="29">
         <v>60</v>
       </c>
       <c r="E4" s="29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" s="29">
         <v>0</v>
@@ -4947,9 +4992,11 @@
       <c r="G4" s="29">
         <v>6</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>219</v>
+      </c>
       <c r="J4" s="29" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4957,16 +5004,16 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C5" s="28">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D5" s="29">
         <v>60</v>
       </c>
       <c r="E5" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="29">
         <v>0</v>
@@ -4974,9 +5021,11 @@
       <c r="G5" s="29">
         <v>6</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>217</v>
+      </c>
       <c r="J5" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4984,53 +5033,26 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C6" s="28">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D6" s="29">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E6" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="29">
         <v>6</v>
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="29">
-        <v>5004</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="28">
-        <v>504</v>
-      </c>
-      <c r="D7" s="29">
-        <v>10</v>
-      </c>
-      <c r="E7" s="29">
-        <v>10</v>
-      </c>
-      <c r="F7" s="29">
-        <v>5</v>
-      </c>
-      <c r="G7" s="29">
-        <v>6</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="J7" s="29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5071,19 +5093,19 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5132,16 +5154,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5161,16 +5183,16 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5178,7 +5200,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -5190,16 +5212,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5237,13 +5259,13 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5271,7 +5293,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -5283,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5291,7 +5313,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -5303,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5311,7 +5333,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -5323,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5331,7 +5353,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -5343,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5351,7 +5373,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
         <v>122</v>
@@ -5363,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5371,10 +5393,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5383,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5391,7 +5413,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -5403,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5411,7 +5433,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -5423,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AE883-BD7E-47BE-B291-0F4C9021C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D33598A-8E64-4A6D-BAFF-07161DFF120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
     <sheet name="Enums" sheetId="7" r:id="rId2"/>
     <sheet name="UnitData" sheetId="1" r:id="rId3"/>
-    <sheet name="DestinyData" sheetId="2" r:id="rId4"/>
-    <sheet name="DestinyEffectData" sheetId="6" r:id="rId5"/>
-    <sheet name="ActiveItemData" sheetId="5" r:id="rId6"/>
-    <sheet name="ActiveItemEffectData" sheetId="10" r:id="rId7"/>
-    <sheet name="ItemData" sheetId="4" r:id="rId8"/>
-    <sheet name="EnhanceData" sheetId="3" r:id="rId9"/>
-    <sheet name="NPCData" sheetId="11" r:id="rId10"/>
+    <sheet name="ActiveItemData" sheetId="5" r:id="rId4"/>
+    <sheet name="ActiveItemEffectData" sheetId="10" r:id="rId5"/>
+    <sheet name="ItemData" sheetId="4" r:id="rId6"/>
+    <sheet name="EnhanceData" sheetId="3" r:id="rId7"/>
+    <sheet name="NPCData" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="EnumGroup">Enums!$A:$A</definedName>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="204">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>운명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운명3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,18 +118,6 @@
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositiveEffectDataID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NegativeEffectDataID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsecription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,14 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3500-3999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,14 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,22 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아군 공격력 @증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 공격력 @감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군 공격력 @감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운명4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IconPath</t>
   </si>
   <si>
@@ -1014,14 +956,6 @@
   </si>
   <si>
     <t>Sprite/BlackOraIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectedTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1955,34 +1889,34 @@
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="G2" s="34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1">
@@ -1993,16 +1927,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
@@ -2010,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2033,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -2044,10 +1978,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -2058,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -2072,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -2086,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -2100,10 +2034,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -2114,10 +2048,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -2128,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -2142,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
@@ -2156,10 +2090,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -2170,10 +2104,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
@@ -2184,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
@@ -2198,10 +2132,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>6</v>
@@ -2212,10 +2146,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>6</v>
@@ -2226,10 +2160,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>6</v>
@@ -2240,10 +2174,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>6</v>
@@ -2252,34 +2186,34 @@
     <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="G25" s="37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" thickBot="1">
@@ -2290,16 +2224,16 @@
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2307,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>5</v>
@@ -2326,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>6</v>
@@ -2337,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>6</v>
@@ -2351,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -2365,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>6</v>
@@ -2379,10 +2313,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>6</v>
@@ -2393,10 +2327,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>6</v>
@@ -2407,10 +2341,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>6</v>
@@ -2421,10 +2355,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>6</v>
@@ -2435,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>6</v>
@@ -2449,10 +2383,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>6</v>
@@ -2463,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
@@ -2475,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
@@ -2485,34 +2419,34 @@
     <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="17.25" thickBot="1">
@@ -2523,16 +2457,16 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17.25" thickBot="1">
@@ -2540,19 +2474,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2563,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>6</v>
@@ -2574,10 +2508,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>6</v>
@@ -2588,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
@@ -2602,10 +2536,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>6</v>
@@ -2616,10 +2550,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>6</v>
@@ -2630,10 +2564,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>6</v>
@@ -2644,10 +2578,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>6</v>
@@ -2658,10 +2592,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>6</v>
@@ -2672,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>6</v>
@@ -2686,10 +2620,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>6</v>
@@ -2700,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
@@ -2712,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
@@ -2722,34 +2656,34 @@
     <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
       <c r="E61" s="40"/>
       <c r="G61" s="20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="17.25" thickBot="1">
@@ -2760,16 +2694,16 @@
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1">
@@ -2777,19 +2711,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="17.25" thickBot="1">
@@ -2800,16 +2734,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -2817,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>6</v>
@@ -2831,10 +2765,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>6</v>
@@ -2845,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
@@ -2859,10 +2793,10 @@
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
@@ -2873,10 +2807,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
@@ -2887,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>6</v>
@@ -2901,10 +2835,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>6</v>
@@ -2915,10 +2849,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>6</v>
@@ -2929,10 +2863,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>6</v>
@@ -2943,7 +2877,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
@@ -2955,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
@@ -2965,34 +2899,34 @@
     <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="40"/>
       <c r="G79" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="17.25" thickBot="1">
@@ -3003,16 +2937,16 @@
         <v>4</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="17.25" thickBot="1">
@@ -3020,19 +2954,19 @@
         <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="17.25" thickBot="1">
@@ -3043,16 +2977,16 @@
         <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -3060,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>6</v>
@@ -3074,10 +3008,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
@@ -3088,10 +3022,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
@@ -3102,10 +3036,10 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
@@ -3116,10 +3050,10 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
@@ -3130,10 +3064,10 @@
         <v>8</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>6</v>
@@ -3144,10 +3078,10 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>6</v>
@@ -3158,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>6</v>
@@ -3172,10 +3106,10 @@
         <v>11</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>6</v>
@@ -3186,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3198,7 +3132,7 @@
         <v>13</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
@@ -3208,34 +3142,34 @@
     <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="40"/>
       <c r="G97" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H97" s="21"/>
     </row>
     <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="17.25" thickBot="1">
@@ -3246,16 +3180,16 @@
         <v>4</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="17.25" thickBot="1">
@@ -3263,19 +3197,19 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="17.25" thickBot="1">
@@ -3286,16 +3220,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3303,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>6</v>
@@ -3317,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>6</v>
@@ -3331,10 +3265,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>6</v>
@@ -3345,10 +3279,10 @@
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>6</v>
@@ -3359,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>6</v>
@@ -3373,10 +3307,10 @@
         <v>8</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>6</v>
@@ -3387,10 +3321,10 @@
         <v>9</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>6</v>
@@ -3401,10 +3335,10 @@
         <v>10</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>6</v>
@@ -3415,10 +3349,10 @@
         <v>11</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>6</v>
@@ -3429,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3441,7 +3375,7 @@
         <v>13</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3451,34 +3385,34 @@
     <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="40"/>
       <c r="G115" s="20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H115" s="21"/>
     </row>
     <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="17.25" thickBot="1">
@@ -3489,16 +3423,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -3506,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>5</v>
@@ -3525,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>6</v>
@@ -3536,10 +3470,10 @@
         <v>3</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>6</v>
@@ -3550,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>6</v>
@@ -3564,10 +3498,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>6</v>
@@ -3578,10 +3512,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>6</v>
@@ -3592,10 +3526,10 @@
         <v>7</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>6</v>
@@ -3606,10 +3540,10 @@
         <v>8</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>6</v>
@@ -3620,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>6</v>
@@ -3634,10 +3568,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>6</v>
@@ -3648,10 +3582,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>6</v>
@@ -3662,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3674,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -3692,142 +3626,6 @@
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>8001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>8002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3851,16 +3649,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3879,198 +3677,198 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4105,43 +3903,43 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4155,37 +3953,37 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>6</v>
@@ -4199,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>100</v>
@@ -4444,280 +4242,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D4C3-5437-484D-ACFE-4ACF45820DD6}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3001</v>
-      </c>
-      <c r="D4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>3002</v>
-      </c>
-      <c r="D6">
-        <v>3500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FF34C-3225-4BA8-ACE7-B2F084BF60E3}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="45.75" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3">
-        <v>201</v>
-      </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>-10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4">
-        <v>201</v>
-      </c>
-      <c r="D4">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3500</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5">
-        <v>202</v>
-      </c>
-      <c r="D5">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>-10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>3002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6">
-        <v>201</v>
-      </c>
-      <c r="D6">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4734,19 +4262,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4757,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -4774,7 +4302,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4783,10 +4311,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4794,7 +4322,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C4" s="31">
         <v>301</v>
@@ -4803,10 +4331,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -4815,7 +4343,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4824,10 +4352,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4835,7 +4363,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4844,10 +4372,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4856,11 +4384,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4878,34 +4406,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M1" s="27"/>
     </row>
@@ -4917,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4946,7 +4474,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4964,10 +4492,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4975,7 +4503,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4993,10 +4521,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5004,7 +4532,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -5022,10 +4550,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5033,7 +4561,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -5052,7 +4580,7 @@
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="29" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5061,7 +4589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -5084,28 +4612,28 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5116,10 +4644,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5142,28 +4670,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5171,28 +4699,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5200,28 +4728,28 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +4759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:F194"/>
   <sheetViews>
@@ -5253,19 +4781,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5276,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5293,7 +4821,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -5305,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5313,10 +4841,10 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>0.3</v>
@@ -5325,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5333,10 +4861,10 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -5345,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5353,10 +4881,10 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>0.3</v>
@@ -5365,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5373,10 +4901,10 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>0.3</v>
@@ -5385,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5393,10 +4921,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5405,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5413,10 +4941,10 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -5425,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5433,10 +4961,10 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.3</v>
@@ -5445,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5999,6 +5527,142 @@
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>8002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D33598A-8E64-4A6D-BAFF-07161DFF120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6B016-90C9-429E-907C-161A6B762ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="201">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1136,10 +1136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VFX/EnergyProjectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화염을 일으킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,15 +1148,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VFX/GreenLoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불 회오리를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VFX/FireTornado</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4245,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +4310,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="31">
         <v>301</v>
@@ -4331,7 +4319,7 @@
         <v>5001</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>151</v>
@@ -4352,7 +4340,7 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>151</v>
@@ -4372,7 +4360,7 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>151</v>
@@ -4388,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4491,9 +4479,7 @@
       <c r="G3" s="29">
         <v>6</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>197</v>
-      </c>
+      <c r="H3" s="29"/>
       <c r="J3" s="29" t="s">
         <v>130</v>
       </c>
@@ -4503,7 +4489,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4520,9 +4506,7 @@
       <c r="G4" s="29">
         <v>6</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>203</v>
-      </c>
+      <c r="H4" s="29"/>
       <c r="J4" s="29" t="s">
         <v>159</v>
       </c>
@@ -4549,9 +4533,7 @@
       <c r="G5" s="29">
         <v>6</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>201</v>
-      </c>
+      <c r="H5" s="29"/>
       <c r="J5" s="29" t="s">
         <v>160</v>
       </c>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6B016-90C9-429E-907C-161A6B762ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCE7F9-A84C-4497-8B8C-2088AD72CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2250" windowWidth="21600" windowHeight="11325" tabRatio="818" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,10 +830,6 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -868,18 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fire Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 화살 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1149,6 +1133,34 @@
   </si>
   <si>
     <t>불 회오리를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enegy Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지파 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/EnergyProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/GreenLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/FireTornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/LightningExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3665,7 +3677,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3679,7 +3691,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3693,7 +3705,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3707,7 +3719,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -3805,58 +3817,58 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>501</v>
       </c>
       <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
         <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>22</v>
@@ -4233,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4253,16 +4265,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4290,7 +4302,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4299,10 +4311,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4310,7 +4322,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" s="31">
         <v>301</v>
@@ -4319,10 +4331,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -4331,7 +4343,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4340,10 +4352,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4351,7 +4363,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4360,10 +4372,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4376,8 +4388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4400,25 +4412,25 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -4433,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4462,7 +4474,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4479,9 +4491,11 @@
       <c r="G3" s="29">
         <v>6</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="J3" s="29" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4489,7 +4503,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4506,9 +4520,11 @@
       <c r="G4" s="29">
         <v>6</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="J4" s="29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4516,7 +4532,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4533,9 +4549,11 @@
       <c r="G5" s="29">
         <v>6</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="J5" s="29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4543,7 +4561,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4560,9 +4578,11 @@
       <c r="G6" s="29">
         <v>6</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>201</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4603,19 +4623,19 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4664,16 +4684,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4693,16 +4713,16 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
         <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4710,7 +4730,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4722,16 +4742,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4769,13 +4789,13 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4803,7 +4823,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4815,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4823,7 +4843,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4835,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4843,7 +4863,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4855,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4863,7 +4883,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -4875,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4883,7 +4903,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -4895,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4903,10 +4923,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -4915,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4923,7 +4943,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -4935,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4943,7 +4963,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -4955,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5539,13 +5559,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5556,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5570,28 +5590,28 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5599,43 +5619,43 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
         <v>142</v>
       </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
       <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" t="s">
         <v>142</v>
-      </c>
-      <c r="K4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5643,7 +5663,7 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCE7F9-A84C-4497-8B8C-2088AD72CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1328A-83F6-4C91-8B03-15BE8E49CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="490" yWindow="4760" windowWidth="28100" windowHeight="15460" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="220">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,6 +1161,69 @@
   </si>
   <si>
     <t>에너지파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipFrontFrames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipBackFrames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Sprite&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability07_Flip01,F_U_Card_Ability07_Flip02,F_U_Card_Ability07_Flip03,F_U_Card_Ability07_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_CardA_Back_Flip01,F_U_CardA_Back_Flip02,F_U_CardA_Back_Flip03,F_U_CardA_Back_Flip04</t>
+  </si>
+  <si>
+    <t>F_U_CardA_Back_Flip01,F_U_CardA_Back_Flip02,F_U_CardA_Back_Flip03,F_U_CardA_Back_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability06_Flip01,F_U_Card_Ability06_Flip02,F_U_Card_Ability06_Flip03,F_U_Card_Ability06_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability08_Flip01,F_U_Card_Ability08_Flip02,F_U_Card_Ability08_Flip03,F_U_Card_Ability08_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_CardB_Back_Flip01,F_U_CardB_Back_Flip02,F_U_CardB_Back_Flip03,F_U_CardB_Back_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability36_Flip01,F_U_Card_Ability36_Flip02,F_U_Card_Ability36_Flip03,F_U_Card_Ability36_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability52_Flip01,F_U_Card_Ability52_Flip02,F_U_Card_Ability52_Flip03,F_U_Card_Ability52_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_CardC_Back_Flip01,F_U_CardC_Back_Flip02,F_U_CardC_Back_Flip03,F_U_CardC_Back_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability11_Flip01,F_U_Card_Ability11_Flip02,F_U_Card_Ability11_Flip03,F_U_Card_Ability11_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_CardD_Back_Flip01,F_U_CardD_Back_Flip02,F_U_CardD_Back_Flip03,F_U_CardD_Back_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability32_Flip01,F_U_Card_Ability32_Flip02,F_U_Card_Ability32_Flip03,F_U_Card_Ability32_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability40_Flip01,F_U_Card_Ability40_Flip02,F_U_Card_Ability40_Flip03,F_U_Card_Ability40_Flip04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,16 +1941,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
       <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1962,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1939,7 +2002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2183,8 +2246,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
       <c r="B25" s="36" t="s">
         <v>49</v>
       </c>
@@ -2196,7 +2259,7 @@
       </c>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
@@ -2216,7 +2279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2416,8 +2479,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>52</v>
       </c>
@@ -2429,7 +2492,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
@@ -2449,7 +2512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2469,7 +2532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2653,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="38" t="s">
         <v>55</v>
@@ -2666,7 +2729,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2706,7 +2769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2726,7 +2789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2896,8 +2959,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
       <c r="B79" s="38" t="s">
         <v>57</v>
       </c>
@@ -2909,7 +2972,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -2929,7 +2992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -2949,7 +3012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -2969,7 +3032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3139,8 +3202,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
       <c r="B97" s="38" t="s">
         <v>57</v>
       </c>
@@ -3152,7 +3215,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3192,7 +3255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3212,7 +3275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3382,8 +3445,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
       <c r="B115" s="38" t="s">
         <v>59</v>
       </c>
@@ -3395,7 +3458,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3640,7 +3703,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3886,10 +3949,10 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4245,15 +4308,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="5" max="5" width="82.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4392,14 +4455,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4599,14 +4662,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4763,22 +4826,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="29.08203125" customWidth="1"/>
+    <col min="7" max="7" width="61.9140625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4797,8 +4862,14 @@
       <c r="F1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4817,8 +4888,14 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -4837,8 +4914,14 @@
       <c r="F3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>7001</v>
       </c>
@@ -4857,8 +4940,14 @@
       <c r="F4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>7002</v>
       </c>
@@ -4877,8 +4966,14 @@
       <c r="F5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>7003</v>
       </c>
@@ -4897,8 +4992,14 @@
       <c r="F6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>7004</v>
       </c>
@@ -4917,8 +5018,14 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7005</v>
       </c>
@@ -4937,8 +5044,14 @@
       <c r="F8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7006</v>
       </c>
@@ -4957,8 +5070,14 @@
       <c r="F9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7007</v>
       </c>
@@ -4977,23 +5096,29 @@
       <c r="F10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -5545,9 +5670,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" style="30" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1328A-83F6-4C91-8B03-15BE8E49CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2F7AE-92E6-452F-B342-7091C60D6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="4760" windowWidth="28100" windowHeight="15460" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="222">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,6 +1224,14 @@
   </si>
   <si>
     <t>F_U_Card_Ability40_Flip01,F_U_Card_Ability40_Flip02,F_U_Card_Ability40_Flip03,F_U_Card_Ability40_Flip04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4828,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5664,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5790,6 +5798,20 @@
       <c r="B5" t="s">
         <v>192</v>
       </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>8003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2F7AE-92E6-452F-B342-7091C60D6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EA88B6-8D50-4F1F-8E6D-55F1D283C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="223">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1232,6 +1232,10 @@
   </si>
   <si>
     <t>Enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5810,7 +5814,7 @@
         <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EA88B6-8D50-4F1F-8E6D-55F1D283C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A083D-9582-44D8-9BF4-EDF1279A6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -3957,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4093,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="5">
         <v>4</v>
@@ -5678,7 +5678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A083D-9582-44D8-9BF4-EDF1279A6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAC0CF2-CDFA-41C8-852B-A41F3A640500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16650" yWindow="2070" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="214">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,26 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첫문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다섯문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -977,21 +957,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shopItemIDs</t>
-  </si>
-  <si>
     <t>lee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6000,6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,6001,6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1025,10 +994,6 @@
   </si>
   <si>
     <t>Fire Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1560,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1635,7 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1963,16 +1927,16 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.5" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
@@ -2260,16 +2224,16 @@
     </row>
     <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.5" thickBot="1">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="G25" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="35"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
@@ -2730,12 +2694,12 @@
     </row>
     <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
       <c r="G61" s="20" t="s">
         <v>56</v>
       </c>
@@ -2973,12 +2937,12 @@
     </row>
     <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.5" thickBot="1">
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
       <c r="G79" s="20" t="s">
         <v>58</v>
       </c>
@@ -3216,12 +3180,12 @@
     </row>
     <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.5" thickBot="1">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
       <c r="G97" s="20" t="s">
         <v>58</v>
       </c>
@@ -3459,12 +3423,12 @@
     </row>
     <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.5" thickBot="1">
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="40"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
       <c r="G115" s="20" t="s">
         <v>60</v>
       </c>
@@ -3752,7 +3716,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3766,7 +3730,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3780,7 +3744,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3794,7 +3758,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -3926,10 +3890,10 @@
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3940,10 +3904,10 @@
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -4005,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>22</v>
@@ -4377,7 +4341,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4386,51 +4350,51 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="31">
+        <v>186</v>
+      </c>
+      <c r="C4" s="30">
         <v>301</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>5001</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <v>301</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>147</v>
+        <v>184</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4438,7 +4402,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4447,10 +4411,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>147</v>
+        <v>185</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4502,10 +4466,10 @@
         <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -4549,7 +4513,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4567,10 +4531,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4578,7 +4542,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4596,10 +4560,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4607,7 +4571,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4625,10 +4589,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4636,7 +4600,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4654,10 +4618,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4707,10 +4671,10 @@
         <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4768,7 +4732,7 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4797,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4805,7 +4769,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4817,16 +4781,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4866,19 +4830,19 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4901,10 +4865,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4912,7 +4876,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4924,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4938,7 +4902,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4950,13 +4914,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4964,7 +4928,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4976,13 +4940,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4990,7 +4954,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -5002,13 +4966,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5016,7 +4980,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -5028,13 +4992,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5042,10 +5006,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5054,13 +5018,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5068,7 +5032,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5080,13 +5044,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5094,7 +5058,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5106,13 +5070,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5676,145 +5640,87 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.58203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>157</v>
+      <c r="C1" t="s">
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>170</v>
+      <c r="C2" t="s">
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
       <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>8001</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A083D-9582-44D8-9BF4-EDF1279A6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049A053-A860-4688-B427-FB60364D5CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="0" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="227">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,14 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/BowIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/BlackOraIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectedTarget</t>
   </si>
   <si>
@@ -1120,10 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화염을 일으킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,10 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불 회오리를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enegy Wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,10 +1136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VFX/FireTornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VFX/LightningExplosion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1236,6 +1216,42 @@
   </si>
   <si>
     <t>Healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/Meteors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성 메테오를 시전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 큰 번개 에너지를 시전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electro force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/EnegyWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/ElectroForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PoisonMeteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1953,16 +1969,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
@@ -1974,7 +1990,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -2014,7 +2030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2258,8 +2274,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="36" t="s">
         <v>49</v>
       </c>
@@ -2271,7 +2287,7 @@
       </c>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2491,8 +2507,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2520,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
@@ -2524,7 +2540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2544,7 +2560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="38" t="s">
         <v>55</v>
@@ -2741,7 +2757,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
@@ -2761,7 +2777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2781,7 +2797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2801,7 +2817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2971,8 +2987,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="38" t="s">
         <v>57</v>
       </c>
@@ -2984,7 +3000,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -3004,7 +3020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -3044,7 +3060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3214,8 +3230,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="38" t="s">
         <v>57</v>
       </c>
@@ -3227,7 +3243,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -3247,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3287,7 +3303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3457,8 +3473,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="38" t="s">
         <v>59</v>
       </c>
@@ -3470,7 +3486,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>27</v>
       </c>
@@ -3490,7 +3506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3715,7 +3731,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3752,7 +3768,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3766,7 +3782,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3780,7 +3796,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3794,7 +3810,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -3926,10 +3942,10 @@
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3940,10 +3956,10 @@
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3957,14 +3973,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4005,7 +4021,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>22</v>
@@ -4320,15 +4336,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="82.25" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4377,7 +4394,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4386,10 +4403,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4397,7 +4414,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C4" s="31">
         <v>301</v>
@@ -4406,10 +4423,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -4418,7 +4435,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4427,10 +4444,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4438,7 +4455,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4447,10 +4464,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4464,17 +4481,17 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4502,10 +4519,10 @@
         <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -4549,7 +4566,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4567,10 +4584,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4578,7 +4595,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4596,10 +4613,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4607,7 +4624,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4625,10 +4642,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4636,7 +4653,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4654,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4674,14 +4691,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4805,7 +4822,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4817,10 +4834,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5">
         <v>300</v>
@@ -4844,14 +4861,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="29.08203125" customWidth="1"/>
-    <col min="7" max="7" width="61.9140625" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4866,19 +4883,19 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4901,10 +4918,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4912,7 +4929,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4924,13 +4941,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4938,7 +4955,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4950,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4964,7 +4981,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4976,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4990,7 +5007,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -5002,13 +5019,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5016,7 +5033,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -5028,13 +5045,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5042,10 +5059,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5054,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5068,7 +5085,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5080,13 +5097,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5094,7 +5111,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5106,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5682,9 +5699,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.58203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5696,10 +5713,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>131</v>
@@ -5713,13 +5730,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5730,10 +5747,10 @@
         <v>137</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
         <v>138</v>
@@ -5756,13 +5773,13 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>138</v>
@@ -5800,10 +5817,10 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5811,10 +5828,10 @@
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049A053-A860-4688-B427-FB60364D5CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA66A3-1C07-450C-88C5-0486D1E259C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="218">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,26 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첫문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다섯문장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,21 +949,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shopItemIDs</t>
-  </si>
-  <si>
     <t>lee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6000,6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,6001,6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,10 +986,6 @@
   </si>
   <si>
     <t>Fire Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1576,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1651,7 +1616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1979,16 +1943,16 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
@@ -2276,16 +2240,16 @@
     </row>
     <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="G25" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="35"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
@@ -2746,12 +2710,12 @@
     </row>
     <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
       <c r="G61" s="20" t="s">
         <v>56</v>
       </c>
@@ -2989,12 +2953,12 @@
     </row>
     <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
       <c r="G79" s="20" t="s">
         <v>58</v>
       </c>
@@ -3232,12 +3196,12 @@
     </row>
     <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="39"/>
       <c r="G97" s="20" t="s">
         <v>58</v>
       </c>
@@ -3475,12 +3439,12 @@
     </row>
     <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="40"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
       <c r="G115" s="20" t="s">
         <v>60</v>
       </c>
@@ -3768,7 +3732,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3782,7 +3746,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3796,7 +3760,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3810,7 +3774,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -3942,10 +3906,10 @@
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3956,10 +3920,10 @@
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +3985,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>22</v>
@@ -4336,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2F1DE-C499-42C0-9AF5-F928DBDC5D56}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4394,7 +4358,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4403,51 +4367,51 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="31">
+        <v>212</v>
+      </c>
+      <c r="C4" s="30">
         <v>301</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>5001</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C5">
         <v>301</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>225</v>
+        <v>210</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4455,7 +4419,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4464,10 +4428,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>226</v>
+        <v>182</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4519,10 +4483,10 @@
         <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -4566,7 +4530,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4584,10 +4548,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4595,7 +4559,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4613,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4624,7 +4588,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4642,10 +4606,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4653,7 +4617,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4671,10 +4635,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4724,10 +4688,10 @@
         <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4785,7 +4749,7 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4814,7 +4778,7 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4822,7 +4786,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4834,16 +4798,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H5">
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4883,19 +4847,19 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4918,10 +4882,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4929,7 +4893,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4941,13 +4905,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4955,7 +4919,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4967,13 +4931,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4981,7 +4945,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4993,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5007,7 +4971,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -5019,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5033,7 +4997,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -5045,13 +5009,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5059,10 +5023,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5071,13 +5035,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5085,7 +5049,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5097,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5111,7 +5075,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5123,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5693,145 +5657,87 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>155</v>
+      <c r="C1" t="s">
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>168</v>
+      <c r="C2" t="s">
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
       <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>8001</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA66A3-1C07-450C-88C5-0486D1E259C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639EC8CB-B7E8-453D-8CCE-04E09A1E155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20530" yWindow="6880" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="272">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,18 +812,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillID</t>
   </si>
   <si>
@@ -891,14 +883,6 @@
     <t>IconPath</t>
   </si>
   <si>
-    <t>Sprite/ShieldIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/SwordIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -922,17 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 @증가한다.</t>
-  </si>
-  <si>
-    <t>Sprite/GunIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1218,6 +1191,235 @@
   <si>
     <t>Sprite/Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급전사의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급전사의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급전사의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나가 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카타나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽둥이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검투사의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가의 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사의 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든 링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도가 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬확률이 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지가 @증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법부여된 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Armor/Armor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Armor/Armor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Armor/Armor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Armor/Armor4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Food/Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Food/Cheese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Food/ChickenLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Food/Grog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Gloves/Gloves1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Gloves/Gloves2</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Gloves/Gloves3</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Gloves/Gloves4</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Weapon/Weapon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Weapon/Weapon2</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Weapon/Weapon4</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Weapon/Weapon3</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shield/Shield1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shield/Shield2</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shield/Shield4</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shield/Shield3</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shoes/Shoes1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shoes/Shoes2</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shoes/Shoes3</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Shoes/Shoes4</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Ring/Ring1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Ring/Ring2</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Ring/Ring3</t>
+  </si>
+  <si>
+    <t>Sprite/PassiveItemIcon/Ring/Ring4</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1625,6 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1933,28 +2136,28 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="G2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.5" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +2177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="4" spans="2:8" ht="17.5" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1994,7 +2197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" ht="17.5" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2238,20 +2441,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B25" s="35" t="s">
+    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="G25" s="36" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.5" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
@@ -2271,7 +2474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="17.5" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2471,8 +2674,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1">
+    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>52</v>
       </c>
@@ -2484,7 +2687,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1">
+    <row r="44" spans="2:8" ht="17.5" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
@@ -2504,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1">
+    <row r="45" spans="2:8" ht="17.5" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2524,7 +2727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.25" thickBot="1">
+    <row r="46" spans="2:8" ht="17.5" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2708,20 +2911,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
       <c r="G61" s="20" t="s">
         <v>56</v>
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1">
+    <row r="62" spans="2:8" ht="17.5" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" thickBot="1">
+    <row r="63" spans="2:8" ht="17.5" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2761,7 +2964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" thickBot="1">
+    <row r="64" spans="2:8" ht="17.5" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2781,7 +2984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" thickBot="1">
+    <row r="65" spans="2:8" ht="17.5" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -2951,20 +3154,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B79" s="37" t="s">
+    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B79" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="40"/>
       <c r="G79" s="20" t="s">
         <v>58</v>
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.25" thickBot="1">
+    <row r="80" spans="2:8" ht="17.5" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -2984,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" thickBot="1">
+    <row r="81" spans="2:8" ht="17.5" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -3004,7 +3207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.25" thickBot="1">
+    <row r="82" spans="2:8" ht="17.5" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -3024,7 +3227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.25" thickBot="1">
+    <row r="83" spans="2:8" ht="17.5" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3194,20 +3397,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B97" s="37" t="s">
+    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B97" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
       <c r="G97" s="20" t="s">
         <v>58</v>
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.25" thickBot="1">
+    <row r="98" spans="2:8" ht="17.5" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -3227,7 +3430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.25" thickBot="1">
+    <row r="99" spans="2:8" ht="17.5" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3247,7 +3450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.25" thickBot="1">
+    <row r="100" spans="2:8" ht="17.5" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3267,7 +3470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.25" thickBot="1">
+    <row r="101" spans="2:8" ht="17.5" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3437,20 +3640,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B115" s="37" t="s">
+    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+      <c r="B115" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
       <c r="G115" s="20" t="s">
         <v>60</v>
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.25" thickBot="1">
+    <row r="116" spans="2:8" ht="17.5" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.25" thickBot="1">
+    <row r="117" spans="2:8" ht="17.5" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3695,7 +3898,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -3732,7 +3935,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -3746,7 +3949,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -3760,7 +3963,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -3774,7 +3977,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>104</v>
@@ -3872,58 +4075,58 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3941,10 +4144,10 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3973,7 +4176,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>18</v>
@@ -3985,7 +4188,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>22</v>
@@ -4304,12 +4507,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="82.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4321,16 +4524,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4358,7 +4561,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4367,10 +4570,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4378,7 +4581,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C4" s="30">
         <v>301</v>
@@ -4387,10 +4590,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G4" s="30"/>
     </row>
@@ -4399,7 +4602,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4408,10 +4611,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4419,7 +4622,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4428,10 +4631,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4448,45 +4651,45 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -4501,7 +4704,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>6</v>
@@ -4530,7 +4733,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4548,10 +4751,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4559,7 +4762,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4577,10 +4780,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4588,7 +4791,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4606,10 +4809,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4617,7 +4820,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4635,10 +4838,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4649,20 +4852,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4679,19 +4882,19 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4728,28 +4931,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4757,28 +4960,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="C4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="G4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
         <v>136</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4786,28 +4989,753 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C5">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5">
+        <v>350</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>6010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7">
         <v>301</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5">
+      <c r="F7" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>6012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9">
+        <v>175</v>
+      </c>
+      <c r="I9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>6013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>6020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>6021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12">
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>6022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13">
+        <v>450</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>6023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>6030</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>6031</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>6032</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17">
+        <v>303</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>6033</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18">
+        <v>180</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>6040</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>6041</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20">
+        <v>302</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>6042</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>6043</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22">
+        <v>160</v>
+      </c>
+      <c r="I22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>6050</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23">
+        <v>301</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>6051</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24">
+        <v>302</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>6052</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25">
+        <v>303</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25">
         <v>300</v>
       </c>
-      <c r="I5" t="s">
-        <v>140</v>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>6053</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>400</v>
+      </c>
+      <c r="I26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>6060</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>6061</v>
+      </c>
+      <c r="B28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>6062</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29">
+        <v>303</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29">
+        <v>300</v>
+      </c>
+      <c r="I29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>6063</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4825,14 +5753,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="29.125" customWidth="1"/>
-    <col min="7" max="7" width="61.875" customWidth="1"/>
+    <col min="6" max="6" width="29.08203125" customWidth="1"/>
+    <col min="7" max="7" width="61.83203125" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4847,19 +5775,19 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4882,10 +5810,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4893,7 +5821,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -4905,13 +5833,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4919,7 +5847,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4931,13 +5859,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4945,7 +5873,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4957,13 +5885,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4971,7 +5899,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -4983,13 +5911,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4997,10 +5925,10 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>0.3</v>
@@ -5009,13 +5937,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5023,10 +5951,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -5035,13 +5963,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5049,7 +5977,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5061,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5075,7 +6003,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5087,13 +6015,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5659,11 +6587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53829A82-7AF8-4424-A74D-079B89F0926D}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
@@ -5676,10 +6604,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5690,10 +6618,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5701,10 +6629,10 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5712,10 +6640,10 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5723,10 +6651,10 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5734,10 +6662,10 @@
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitywork\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639EC8CB-B7E8-453D-8CCE-04E09A1E155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4661FB-9995-477D-A61F-8E11455A745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20530" yWindow="6880" windowWidth="16780" windowHeight="11150" tabRatio="818" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -2136,16 +2136,16 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -2441,8 +2441,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="36" t="s">
         <v>49</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -2674,8 +2674,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1">
+    <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
         <v>52</v>
       </c>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1">
+    <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1">
       <c r="B45" s="5">
         <v>0</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1">
+    <row r="46" spans="2:8" ht="17.25" thickBot="1">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.5" thickBot="1"/>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="38" t="s">
         <v>55</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="2:8" ht="17.5" thickBot="1">
+    <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.5" thickBot="1">
+    <row r="63" spans="2:8" ht="17.25" thickBot="1">
       <c r="B63" s="5">
         <v>0</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.5" thickBot="1">
+    <row r="64" spans="2:8" ht="17.25" thickBot="1">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.5" thickBot="1">
+    <row r="65" spans="2:8" ht="17.25" thickBot="1">
       <c r="B65" s="5">
         <v>2</v>
       </c>
@@ -3154,8 +3154,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="79" spans="2:8" ht="17.5" thickBot="1">
+    <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="38" t="s">
         <v>57</v>
       </c>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="2:8" ht="17.5" thickBot="1">
+    <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.5" thickBot="1">
+    <row r="81" spans="2:8" ht="17.25" thickBot="1">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="17.5" thickBot="1">
+    <row r="82" spans="2:8" ht="17.25" thickBot="1">
       <c r="B82" s="5">
         <v>1</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.5" thickBot="1">
+    <row r="83" spans="2:8" ht="17.25" thickBot="1">
       <c r="B83" s="5">
         <v>2</v>
       </c>
@@ -3397,8 +3397,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="97" spans="2:8" ht="17.5" thickBot="1">
+    <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="38" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="2:8" ht="17.5" thickBot="1">
+    <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="17.5" thickBot="1">
+    <row r="99" spans="2:8" ht="17.25" thickBot="1">
       <c r="B99" s="5">
         <v>0</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17.5" thickBot="1">
+    <row r="100" spans="2:8" ht="17.25" thickBot="1">
       <c r="B100" s="5">
         <v>1</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="17.5" thickBot="1">
+    <row r="101" spans="2:8" ht="17.25" thickBot="1">
       <c r="B101" s="5">
         <v>2</v>
       </c>
@@ -3640,8 +3640,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.5" thickBot="1"/>
-    <row r="115" spans="2:8" ht="17.5" thickBot="1">
+    <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="38" t="s">
         <v>59</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H115" s="21"/>
     </row>
-    <row r="116" spans="2:8" ht="17.5" thickBot="1">
+    <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
         <v>27</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.5" thickBot="1">
+    <row r="117" spans="2:8" ht="17.25" thickBot="1">
       <c r="B117" s="5">
         <v>0</v>
       </c>
@@ -3898,7 +3898,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -4140,14 +4140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4270,13 +4270,13 @@
         <v>25</v>
       </c>
       <c r="G3" s="5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="5">
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" s="5">
         <v>4</v>
@@ -4507,12 +4507,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="82.25" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4651,14 +4651,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
@@ -4854,18 +4854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F7B6E-E6C6-4CBE-98EC-CA5575BAAC39}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5750,17 +5750,17 @@
   <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="29.08203125" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="61.875" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5827,10 +5827,10 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="s">
         <v>166</v>
@@ -5853,10 +5853,10 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -5879,10 +5879,10 @@
         <v>94</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="s">
         <v>168</v>
@@ -5905,10 +5905,10 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="s">
         <v>169</v>
@@ -5931,10 +5931,10 @@
         <v>113</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="s">
         <v>170</v>
@@ -5957,10 +5957,10 @@
         <v>162</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F8" t="s">
         <v>171</v>
@@ -5983,10 +5983,10 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -6009,10 +6009,10 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="s">
         <v>173</v>
@@ -6591,7 +6591,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4661FB-9995-477D-A61F-8E11455A745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5320FB4A-8623-4764-958F-C293AD622000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,19 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="274">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>Orc</t>
   </si>
   <si>
     <t>ID</t>
@@ -1420,6 +1411,26 @@
   </si>
   <si>
     <t>Sprite/PassiveItemIcon/Ring/Ring4</t>
+  </si>
+  <si>
+    <t>Warrior_Normal_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior_Big_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magician_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viking_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2147,34 +2158,34 @@
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="17.25" thickBot="1">
       <c r="B2" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="G2" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1">
@@ -2182,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
@@ -2202,19 +2213,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2222,13 +2233,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -2236,13 +2247,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -2250,13 +2261,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -2264,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -2278,13 +2289,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -2292,13 +2303,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -2306,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -2320,13 +2331,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -2334,13 +2345,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2348,13 +2359,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2362,13 +2373,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2376,13 +2387,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2390,13 +2401,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2404,13 +2415,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2418,13 +2429,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2432,46 +2443,46 @@
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="G25" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" thickBot="1">
@@ -2479,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2499,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
@@ -2515,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -2529,13 +2540,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -2543,13 +2554,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -2557,13 +2568,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -2571,13 +2582,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -2585,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -2599,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -2613,13 +2624,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -2627,13 +2638,13 @@
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -2641,13 +2652,13 @@
         <v>11</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -2655,11 +2666,11 @@
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -2667,44 +2678,44 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="43" spans="2:8" ht="17.25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" ht="17.25" thickBot="1">
       <c r="B44" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="17.25" thickBot="1">
@@ -2712,19 +2723,19 @@
         <v>0</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17.25" thickBot="1">
@@ -2732,19 +2743,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2752,13 +2763,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -2766,13 +2777,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -2780,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -2794,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -2808,13 +2819,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -2822,13 +2833,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -2836,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -2850,13 +2861,13 @@
         <v>9</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -2864,13 +2875,13 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -2878,13 +2889,13 @@
         <v>11</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -2892,11 +2903,11 @@
         <v>12</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -2904,44 +2915,44 @@
         <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="B61" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
       <c r="E61" s="40"/>
       <c r="G61" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="2:8" ht="17.25" thickBot="1">
       <c r="B62" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="17.25" thickBot="1">
@@ -2949,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="17.25" thickBot="1">
@@ -2969,19 +2980,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="17.25" thickBot="1">
@@ -2989,19 +3000,19 @@
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G65" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -3009,13 +3020,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E66" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -3023,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E67" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -3037,13 +3048,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -3051,13 +3062,13 @@
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -3065,13 +3076,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -3079,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -3093,13 +3104,13 @@
         <v>9</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -3107,13 +3118,13 @@
         <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -3121,13 +3132,13 @@
         <v>11</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -3135,11 +3146,11 @@
         <v>12</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -3147,44 +3158,44 @@
         <v>13</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="79" spans="2:8" ht="17.25" thickBot="1">
       <c r="B79" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="40"/>
       <c r="G79" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="2:8" ht="17.25" thickBot="1">
       <c r="B80" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="17.25" thickBot="1">
@@ -3192,19 +3203,19 @@
         <v>0</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="17.25" thickBot="1">
@@ -3212,19 +3223,19 @@
         <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="17.25" thickBot="1">
@@ -3232,19 +3243,19 @@
         <v>2</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -3252,13 +3263,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E84" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -3266,13 +3277,13 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E85" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -3280,13 +3291,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -3294,13 +3305,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E87" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -3308,13 +3319,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="2:8">
@@ -3322,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="2:8">
@@ -3336,13 +3347,13 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -3350,13 +3361,13 @@
         <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -3364,13 +3375,13 @@
         <v>11</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -3378,11 +3389,11 @@
         <v>12</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -3390,44 +3401,44 @@
         <v>13</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="97" spans="2:8" ht="17.25" thickBot="1">
       <c r="B97" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="40"/>
       <c r="G97" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H97" s="21"/>
     </row>
     <row r="98" spans="2:8" ht="17.25" thickBot="1">
       <c r="B98" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="17.25" thickBot="1">
@@ -3435,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="17.25" thickBot="1">
@@ -3455,19 +3466,19 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="17.25" thickBot="1">
@@ -3475,19 +3486,19 @@
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3495,13 +3506,13 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E102" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="2:8">
@@ -3509,13 +3520,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E103" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="2:8">
@@ -3523,13 +3534,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="2:8">
@@ -3537,13 +3548,13 @@
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E105" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:8">
@@ -3551,13 +3562,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="2:8">
@@ -3565,13 +3576,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="2:8">
@@ -3579,13 +3590,13 @@
         <v>9</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="2:8">
@@ -3593,13 +3604,13 @@
         <v>10</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="2:8">
@@ -3607,13 +3618,13 @@
         <v>11</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:8">
@@ -3621,11 +3632,11 @@
         <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="2:8">
@@ -3633,44 +3644,44 @@
         <v>13</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="115" spans="2:8" ht="17.25" thickBot="1">
       <c r="B115" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="40"/>
       <c r="G115" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H115" s="21"/>
     </row>
     <row r="116" spans="2:8" ht="17.25" thickBot="1">
       <c r="B116" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="17.25" thickBot="1">
@@ -3678,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -3698,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
@@ -3714,13 +3725,13 @@
         <v>2</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="2:8">
@@ -3728,13 +3739,13 @@
         <v>3</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E120" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="2:8">
@@ -3742,13 +3753,13 @@
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E121" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="2:8">
@@ -3756,13 +3767,13 @@
         <v>5</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:8">
@@ -3770,13 +3781,13 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E123" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:8">
@@ -3784,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="2:8">
@@ -3798,13 +3809,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="2:8">
@@ -3812,13 +3823,13 @@
         <v>9</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -3826,13 +3837,13 @@
         <v>10</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="2:8">
@@ -3840,13 +3851,13 @@
         <v>11</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="2:5">
@@ -3854,11 +3865,11 @@
         <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="2:5">
@@ -3866,11 +3877,11 @@
         <v>13</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3907,226 +3918,226 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>201</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>502</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4141,7 +4152,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4152,52 +4163,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4205,49 +4216,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4255,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>100</v>
@@ -4267,16 +4278,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="5">
         <v>3</v>
       </c>
       <c r="I3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5">
         <v>4</v>
@@ -4300,15 +4311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="49.5">
       <c r="A4" s="7">
         <v>1000</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -4320,13 +4331,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H4" s="5">
         <v>1.5</v>
       </c>
       <c r="I4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -4335,126 +4346,220 @@
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N4" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O4" s="5">
         <v>4</v>
       </c>
       <c r="P4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="33">
       <c r="A5" s="7">
         <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="7">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="5">
         <v>1.5</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
       <c r="N5" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O5" s="5">
         <v>4</v>
       </c>
       <c r="P5" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M6" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P6" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="N8" s="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33">
+      <c r="A7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6</v>
+      </c>
+      <c r="P7" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="33">
+      <c r="A8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="7">
+        <v>150</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="N9" s="4"/>
@@ -4518,22 +4623,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4541,19 +4646,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4561,7 +4666,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4570,10 +4675,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4581,7 +4686,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C4" s="30">
         <v>301</v>
@@ -4590,10 +4695,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G4" s="30"/>
     </row>
@@ -4602,7 +4707,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4611,10 +4716,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4622,7 +4727,7 @@
         <v>4003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>301</v>
@@ -4631,10 +4736,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4665,34 +4770,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="27"/>
     </row>
@@ -4701,31 +4806,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4733,7 +4838,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4751,10 +4856,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4762,7 +4867,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4780,10 +4885,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4791,7 +4896,7 @@
         <v>5002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="28">
         <v>503</v>
@@ -4809,10 +4914,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4820,7 +4925,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4838,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4870,31 +4975,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4902,22 +5007,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -4931,28 +5036,28 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4960,28 +5065,28 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H4">
         <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4989,28 +5094,28 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5">
         <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5018,28 +5123,28 @@
         <v>6003</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5047,28 +5152,28 @@
         <v>6010</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5076,28 +5181,28 @@
         <v>6011</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8">
         <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5105,28 +5210,28 @@
         <v>6012</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>60</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9">
         <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5134,28 +5239,28 @@
         <v>6013</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10">
         <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>80</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H10">
         <v>250</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5163,28 +5268,28 @@
         <v>6020</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C11">
         <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5192,28 +5297,28 @@
         <v>6021</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H12">
         <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5221,28 +5326,28 @@
         <v>6022</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>35</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13">
         <v>450</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5250,28 +5355,28 @@
         <v>6023</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14">
         <v>304</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H14">
         <v>1000</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5279,28 +5384,28 @@
         <v>6030</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C15">
         <v>301</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5308,28 +5413,28 @@
         <v>6031</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16">
         <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H16">
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5337,28 +5442,28 @@
         <v>6032</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C17">
         <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H17">
         <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5366,28 +5471,28 @@
         <v>6033</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>304</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H18">
         <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5395,28 +5500,28 @@
         <v>6040</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C19">
         <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H19">
         <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5424,28 +5529,28 @@
         <v>6041</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20">
         <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20">
         <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5453,28 +5558,28 @@
         <v>6042</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C21">
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H21">
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5482,28 +5587,28 @@
         <v>6043</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22">
         <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H22">
         <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5511,28 +5616,28 @@
         <v>6050</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C23">
         <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0.05</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5540,28 +5645,28 @@
         <v>6051</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C24">
         <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0.1</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H24">
         <v>200</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5569,28 +5674,28 @@
         <v>6052</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C25">
         <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0.15</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H25">
         <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5598,28 +5703,28 @@
         <v>6053</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C26">
         <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0.2</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H26">
         <v>400</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5627,28 +5732,28 @@
         <v>6060</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C27">
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E27">
         <v>0.2</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H27">
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5656,28 +5761,28 @@
         <v>6061</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C28">
         <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E28">
         <v>0.4</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H28">
         <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5685,28 +5790,28 @@
         <v>6062</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C29">
         <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>0.6</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H29">
         <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5714,28 +5819,28 @@
         <v>6063</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30">
         <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H30">
         <v>500</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5871,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5795,25 +5900,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5821,10 +5926,10 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0.08</v>
@@ -5833,13 +5938,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5847,10 +5952,10 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0.08</v>
@@ -5859,13 +5964,13 @@
         <v>0.2</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5873,10 +5978,10 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>0.08</v>
@@ -5885,13 +5990,13 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5899,10 +6004,10 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -5911,13 +6016,13 @@
         <v>0.7</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5925,10 +6030,10 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>0.08</v>
@@ -5937,13 +6042,13 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5951,10 +6056,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>162</v>
       </c>
       <c r="D8">
         <v>0.08</v>
@@ -5963,13 +6068,13 @@
         <v>0.2</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5977,10 +6082,10 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>0.08</v>
@@ -5989,13 +6094,13 @@
         <v>0.2</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6003,10 +6108,10 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0.08</v>
@@ -6015,13 +6120,13 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6598,16 +6703,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6615,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6629,10 +6734,10 @@
         <v>8000</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6640,10 +6745,10 @@
         <v>8001</v>
       </c>
       <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6651,10 +6756,10 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6662,10 +6767,10 @@
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5320FB4A-8623-4764-958F-C293AD622000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A6B12-A3A9-4C8A-BA0C-0444CF857E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1920" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -4151,7 +4151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -4752,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4847,7 +4847,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3" s="29">
         <v>0</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A6B12-A3A9-4C8A-BA0C-0444CF857E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F6B3F-F2BF-4D66-AF13-1775C71D7F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1920" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="272">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,10 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fire Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,10 +1038,6 @@
   </si>
   <si>
     <t>회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Wind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4199,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>19</v>
@@ -4316,7 +4308,7 @@
         <v>1000</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="7">
         <v>60</v>
@@ -4366,7 +4358,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="7">
         <v>75</v>
@@ -4416,7 +4408,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7">
         <v>40</v>
@@ -4466,7 +4458,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" s="7">
         <v>40</v>
@@ -4516,7 +4508,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
@@ -4609,7 +4601,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4666,7 +4658,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4675,10 +4667,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4686,7 +4678,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="30">
         <v>301</v>
@@ -4695,10 +4687,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G4" s="30"/>
     </row>
@@ -4707,7 +4699,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4716,10 +4708,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4736,10 +4728,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4753,12 +4745,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
@@ -4838,7 +4830,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4856,10 +4848,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4867,7 +4859,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4876,7 +4868,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="29">
         <v>0</v>
@@ -4885,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>138</v>
@@ -4902,7 +4894,7 @@
         <v>503</v>
       </c>
       <c r="D5" s="29">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E5" s="29">
         <v>0</v>
@@ -4911,21 +4903,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="29">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="29">
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4934,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="29">
         <v>5</v>
@@ -4943,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>148</v>
@@ -5036,7 +5028,7 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -5048,10 +5040,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5065,7 +5057,7 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4">
         <v>302</v>
@@ -5077,10 +5069,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -5094,7 +5086,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>303</v>
@@ -5106,10 +5098,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H5">
         <v>350</v>
@@ -5123,7 +5115,7 @@
         <v>6003</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>304</v>
@@ -5135,10 +5127,10 @@
         <v>80</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -5152,7 +5144,7 @@
         <v>6010</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>301</v>
@@ -5164,10 +5156,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -5181,7 +5173,7 @@
         <v>6011</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8">
         <v>302</v>
@@ -5193,10 +5185,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -5210,7 +5202,7 @@
         <v>6012</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9">
         <v>303</v>
@@ -5222,10 +5214,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H9">
         <v>175</v>
@@ -5239,7 +5231,7 @@
         <v>6013</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10">
         <v>304</v>
@@ -5251,10 +5243,10 @@
         <v>80</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H10">
         <v>250</v>
@@ -5268,7 +5260,7 @@
         <v>6020</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11">
         <v>301</v>
@@ -5283,7 +5275,7 @@
         <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -5297,7 +5289,7 @@
         <v>6021</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12">
         <v>302</v>
@@ -5312,7 +5304,7 @@
         <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H12">
         <v>250</v>
@@ -5326,7 +5318,7 @@
         <v>6022</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13">
         <v>303</v>
@@ -5341,7 +5333,7 @@
         <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H13">
         <v>450</v>
@@ -5355,7 +5347,7 @@
         <v>6023</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14">
         <v>304</v>
@@ -5370,7 +5362,7 @@
         <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H14">
         <v>1000</v>
@@ -5384,7 +5376,7 @@
         <v>6030</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>301</v>
@@ -5399,7 +5391,7 @@
         <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -5413,7 +5405,7 @@
         <v>6031</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16">
         <v>302</v>
@@ -5428,7 +5420,7 @@
         <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H16">
         <v>70</v>
@@ -5442,7 +5434,7 @@
         <v>6032</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17">
         <v>303</v>
@@ -5457,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H17">
         <v>120</v>
@@ -5471,7 +5463,7 @@
         <v>6033</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18">
         <v>304</v>
@@ -5486,7 +5478,7 @@
         <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H18">
         <v>180</v>
@@ -5500,22 +5492,22 @@
         <v>6040</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19">
         <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H19">
         <v>40</v>
@@ -5529,22 +5521,22 @@
         <v>6041</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H20">
         <v>80</v>
@@ -5558,22 +5550,22 @@
         <v>6042</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H21">
         <v>120</v>
@@ -5587,22 +5579,22 @@
         <v>6043</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C22">
         <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H22">
         <v>160</v>
@@ -5616,7 +5608,7 @@
         <v>6050</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C23">
         <v>301</v>
@@ -5628,10 +5620,10 @@
         <v>0.05</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -5645,7 +5637,7 @@
         <v>6051</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C24">
         <v>302</v>
@@ -5657,10 +5649,10 @@
         <v>0.1</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -5674,7 +5666,7 @@
         <v>6052</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25">
         <v>303</v>
@@ -5686,10 +5678,10 @@
         <v>0.15</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25">
         <v>300</v>
@@ -5703,7 +5695,7 @@
         <v>6053</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26">
         <v>304</v>
@@ -5715,10 +5707,10 @@
         <v>0.2</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H26">
         <v>400</v>
@@ -5732,22 +5724,22 @@
         <v>6060</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27">
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27">
         <v>0.2</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -5761,22 +5753,22 @@
         <v>6061</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28">
         <v>0.4</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -5790,22 +5782,22 @@
         <v>6062</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29">
         <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29">
         <v>0.6</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H29">
         <v>300</v>
@@ -5819,22 +5811,22 @@
         <v>6063</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30">
         <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H30">
         <v>500</v>
@@ -5880,19 +5872,19 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5915,10 +5907,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5926,7 +5918,7 @@
         <v>7000</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -5938,13 +5930,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
         <v>183</v>
-      </c>
-      <c r="H3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5952,7 +5944,7 @@
         <v>7001</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -5964,13 +5956,13 @@
         <v>0.2</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5978,7 +5970,7 @@
         <v>7002</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -5990,13 +5982,13 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6004,7 +5996,7 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -6016,13 +6008,13 @@
         <v>0.7</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6030,7 +6022,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
@@ -6042,13 +6034,13 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6056,10 +6048,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>0.08</v>
@@ -6068,13 +6060,13 @@
         <v>0.2</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6082,7 +6074,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6094,13 +6086,13 @@
         <v>0.2</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6108,7 +6100,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -6120,13 +6112,13 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6726,7 +6718,7 @@
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6756,10 +6748,10 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6767,10 +6759,10 @@
         <v>8003</v>
       </c>
       <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
         <v>196</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F6B3F-F2BF-4D66-AF13-1775C71D7F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA6BBE-E18A-442A-B2F7-B06D6EBB8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1920" windowWidth="21600" windowHeight="11325" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4276,7 +4276,7 @@
         <v>0.7</v>
       </c>
       <c r="H3" s="5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I3" s="5">
         <v>5</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="24">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="49.5">
@@ -4744,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE846C94-81F7-444B-B5AD-705320432DBD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA6BBE-E18A-442A-B2F7-B06D6EBB8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93665A-480D-45F0-A9EC-3E978F106995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4144,7 +4144,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="24">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33">
@@ -4400,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="24">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33">
@@ -4450,7 +4450,7 @@
         <v>6</v>
       </c>
       <c r="P6" s="24">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="33">
@@ -4500,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="24">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33">
@@ -4550,7 +4550,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:16">

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CodeLike\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93665A-480D-45F0-A9EC-3E978F106995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB0C52-D84F-4220-A31F-C85F6106691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1920" windowWidth="23445" windowHeight="11325" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4273,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="5">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="5">
         <v>1.5</v>
@@ -4282,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="5">
         <v>7.5</v>
@@ -5846,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6054,7 +6054,7 @@
         <v>158</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
         <v>0.2</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon11ok\Desktop\CodeLike\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB0C52-D84F-4220-A31F-C85F6106691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A54C6-F4E9-4B66-A531-00F01DFA965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1920" windowWidth="23445" windowHeight="11325" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_role" sheetId="8" r:id="rId1"/>
@@ -965,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격속도증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,10 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격속도가 @증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력이 @증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1100,10 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F_U_Card_Ability36_Flip01,F_U_Card_Ability36_Flip02,F_U_Card_Ability36_Flip03,F_U_Card_Ability36_Flip04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F_U_Card_Ability52_Flip01,F_U_Card_Ability52_Flip02,F_U_Card_Ability52_Flip03,F_U_Card_Ability52_Flip04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,6 +1410,18 @@
   </si>
   <si>
     <t>Viking_Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽝!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_U_Card_Ability12_Flip01,F_U_Card_Ability12_Flip02,F_U_Card_Ability12_Flip03,F_U_Card_Ability12_Flip04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4191,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>19</v>
@@ -4308,7 +4308,7 @@
         <v>1000</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" s="7">
         <v>60</v>
@@ -4358,7 +4358,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C5" s="7">
         <v>75</v>
@@ -4408,7 +4408,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="7">
         <v>40</v>
@@ -4458,7 +4458,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C7" s="7">
         <v>40</v>
@@ -4508,7 +4508,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C8" s="7">
         <v>150</v>
@@ -4658,7 +4658,7 @@
         <v>4000</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -4667,10 +4667,10 @@
         <v>5000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
@@ -4678,7 +4678,7 @@
         <v>4001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="30">
         <v>301</v>
@@ -4687,10 +4687,10 @@
         <v>5001</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="30"/>
     </row>
@@ -4699,7 +4699,7 @@
         <v>4002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>301</v>
@@ -4708,10 +4708,10 @@
         <v>5003</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4728,10 +4728,10 @@
         <v>5002</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4830,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="28">
         <v>501</v>
@@ -4848,10 +4848,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4859,7 +4859,7 @@
         <v>5001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="28">
         <v>502</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>138</v>
@@ -4906,7 +4906,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>139</v>
@@ -4917,7 +4917,7 @@
         <v>5003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C6" s="28">
         <v>504</v>
@@ -4935,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>148</v>
@@ -5028,7 +5028,7 @@
         <v>6000</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>301</v>
@@ -5040,10 +5040,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5057,7 +5057,7 @@
         <v>6001</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>302</v>
@@ -5069,10 +5069,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -5086,7 +5086,7 @@
         <v>6002</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>303</v>
@@ -5098,10 +5098,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H5">
         <v>350</v>
@@ -5115,7 +5115,7 @@
         <v>6003</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>304</v>
@@ -5127,10 +5127,10 @@
         <v>80</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -5144,7 +5144,7 @@
         <v>6010</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7">
         <v>301</v>
@@ -5156,10 +5156,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -5173,7 +5173,7 @@
         <v>6011</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C8">
         <v>302</v>
@@ -5185,10 +5185,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -5202,7 +5202,7 @@
         <v>6012</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C9">
         <v>303</v>
@@ -5214,10 +5214,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H9">
         <v>175</v>
@@ -5231,7 +5231,7 @@
         <v>6013</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C10">
         <v>304</v>
@@ -5243,10 +5243,10 @@
         <v>80</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H10">
         <v>250</v>
@@ -5260,7 +5260,7 @@
         <v>6020</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11">
         <v>301</v>
@@ -5275,7 +5275,7 @@
         <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -5289,7 +5289,7 @@
         <v>6021</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12">
         <v>302</v>
@@ -5304,7 +5304,7 @@
         <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H12">
         <v>250</v>
@@ -5318,7 +5318,7 @@
         <v>6022</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>303</v>
@@ -5333,7 +5333,7 @@
         <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H13">
         <v>450</v>
@@ -5347,7 +5347,7 @@
         <v>6023</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14">
         <v>304</v>
@@ -5362,7 +5362,7 @@
         <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H14">
         <v>1000</v>
@@ -5376,7 +5376,7 @@
         <v>6030</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15">
         <v>301</v>
@@ -5391,7 +5391,7 @@
         <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -5405,7 +5405,7 @@
         <v>6031</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16">
         <v>302</v>
@@ -5420,7 +5420,7 @@
         <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H16">
         <v>70</v>
@@ -5434,7 +5434,7 @@
         <v>6032</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17">
         <v>303</v>
@@ -5449,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H17">
         <v>120</v>
@@ -5463,7 +5463,7 @@
         <v>6033</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18">
         <v>304</v>
@@ -5478,7 +5478,7 @@
         <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H18">
         <v>180</v>
@@ -5492,22 +5492,22 @@
         <v>6040</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C19">
         <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H19">
         <v>40</v>
@@ -5521,22 +5521,22 @@
         <v>6041</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20">
         <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H20">
         <v>80</v>
@@ -5550,22 +5550,22 @@
         <v>6042</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21">
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H21">
         <v>120</v>
@@ -5579,22 +5579,22 @@
         <v>6043</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22">
         <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H22">
         <v>160</v>
@@ -5608,7 +5608,7 @@
         <v>6050</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C23">
         <v>301</v>
@@ -5620,10 +5620,10 @@
         <v>0.05</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -5637,7 +5637,7 @@
         <v>6051</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24">
         <v>302</v>
@@ -5649,10 +5649,10 @@
         <v>0.1</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -5666,7 +5666,7 @@
         <v>6052</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25">
         <v>303</v>
@@ -5678,10 +5678,10 @@
         <v>0.15</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H25">
         <v>300</v>
@@ -5695,7 +5695,7 @@
         <v>6053</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26">
         <v>304</v>
@@ -5707,10 +5707,10 @@
         <v>0.2</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H26">
         <v>400</v>
@@ -5724,22 +5724,22 @@
         <v>6060</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C27">
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>0.2</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -5753,22 +5753,22 @@
         <v>6061</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C28">
         <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>0.4</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -5782,22 +5782,22 @@
         <v>6062</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C29">
         <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29">
         <v>0.6</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H29">
         <v>300</v>
@@ -5811,22 +5811,22 @@
         <v>6063</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C30">
         <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H30">
         <v>500</v>
@@ -5846,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFAE33-B027-4C65-9798-1057D5391CE0}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5872,19 +5872,19 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5907,10 +5907,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5930,13 +5930,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>181</v>
-      </c>
-      <c r="H3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5956,13 +5956,13 @@
         <v>0.2</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5982,13 +5982,13 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5996,25 +5996,25 @@
         <v>7003</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6022,7 +6022,7 @@
         <v>7004</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>110</v>
@@ -6034,13 +6034,13 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6048,10 +6048,10 @@
         <v>7005</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>0.05</v>
@@ -6060,13 +6060,13 @@
         <v>0.2</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6074,7 +6074,7 @@
         <v>7006</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6086,13 +6086,13 @@
         <v>0.2</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6100,7 +6100,7 @@
         <v>7007</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -6112,13 +6112,13 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6748,10 +6748,10 @@
         <v>8002</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6759,10 +6759,10 @@
         <v>8003</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
